--- a/ultrasy_lab/cw3/lab3.xlsx
+++ b/ultrasy_lab/cw3/lab3.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\sem5\ultrasy_lab\cw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC73FC-8394-4E54-B439-8F68FA1E60F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093F6C1-FF11-429A-B127-7963A1805A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="pomiary" sheetId="1" r:id="rId1"/>
+    <sheet name="3rezonanse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>r</t>
   </si>
@@ -220,6 +221,24 @@
   <si>
     <t>1,7</t>
   </si>
+  <si>
+    <t>$\Delta f [Hz]$</t>
+  </si>
+  <si>
+    <t>$\Delta U [V]$</t>
+  </si>
+  <si>
+    <t>$\Delta m [mg]$</t>
+  </si>
+  <si>
+    <t>P_r[mW]</t>
+  </si>
+  <si>
+    <t>$\Delta P_r [mW]$</t>
+  </si>
+  <si>
+    <t>$\Delta P_a [mW]$</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +264,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +356,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,7 +403,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -392,7 +440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,11 +455,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$F$3</c:f>
+              <c:f>pomiary!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pr[mW]</c:v>
+                  <c:v>P_r[mW]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -440,7 +488,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$4:$C$78</c:f>
+              <c:f>pomiary!$C$4:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="75"/>
@@ -674,7 +722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$4:$F$78</c:f>
+              <c:f>pomiary!$I$4:$I$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -980,7 +1028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1091777791"/>
@@ -1042,7 +1090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1091787391"/>
@@ -1090,7 +1138,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1104,7 +1152,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1141,7 +1189,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1156,7 +1204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$3</c:f>
+              <c:f>pomiary!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1189,7 +1237,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$4:$C$78</c:f>
+              <c:f>pomiary!$C$4:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1423,7 +1471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$4:$G$78</c:f>
+              <c:f>pomiary!$K$4:$K$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -1729,7 +1777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1912997503"/>
@@ -1791,7 +1839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1912996543"/>
@@ -1839,7 +1887,1937 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1914260717410328E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.85230796150481192"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>298133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>316342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.2185684130753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.55028977178506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.658606793548557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.32301669574214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.4293993479573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.98065630451651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207.08607177195751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>303.96324697858142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242.63732872851674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.31141047845205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-048D-4E3D-9CA8-6C0A72C1A2D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>elektryczna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>298133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>316342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-048D-4E3D-9CA8-6C0A72C1A2D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1445280079"/>
+        <c:axId val="1532901071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1445280079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1532901071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1532901071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445280079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$B$17:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>317422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>334461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>336464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>337262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>341276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>342393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>342812</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>343252</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>343560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343932</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>344278</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>344694</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>344974</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>345493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>345794</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>346599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>347485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$F$17:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>94.210830934881955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.990328152258257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.3210823261938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.20889656533362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.87137209797885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.08994051105421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207.08607177195751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247.08123584808664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.1895528698501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286.18761850030182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302.18568413075343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318.18374976120509</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343.06962963079656</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>359.95647668516222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>392.84138936997948</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>469.27659182658181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>460.38877758744201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>439.05802341350648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>391.95260794606548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>359.95647668516222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>324.40521972860296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>297.74177701118356</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>266.63442717419423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244.4148915763447</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>221.30657455458118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>207.08607177195751</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.31141047845205</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168.86847054365634</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>135.09477643492505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>106.65377086967769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AE7-4526-A7D9-B6534DD666F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>elektryczna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$J$17:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>319616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>328163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>339036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>339456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>339719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>340236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>342430</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>343470</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>344587</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>345006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>345446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>345754</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>346888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>347168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>347687</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>347988</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>348793</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>349679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$K$17:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AE7-4526-A7D9-B6534DD666F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1442709055"/>
+        <c:axId val="1442710015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1442709055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1442710015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1442710015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1442709055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$B$57:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>349223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>353552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>357875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>359206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>359864</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>364642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>365814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>367624</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>367246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>367662</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>368211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>368571</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>368995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>369601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>370977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>371663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>371989</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>372360</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>372656</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>373047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>373474</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>373829</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>374913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>377523</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>378687</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>380785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$F$57:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>46.216634043527002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.772726923957094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.99129533703244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.099612358795937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.65183650012935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144.87137209797885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.64603339148428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>204.41972750021557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231.97195164154897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255.96905008722646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293.29786989161363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>335.07059681557075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>487.05222030486141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>513.71566302228086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>575.93036269625952</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>628.36846670718444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>784.79399731604497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>762.57446171819538</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>787.46034158778684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>813.2350028812923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>826.56672424000203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>831.8994127834859</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>817.67891000086229</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>789.23790443561484</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>751.90908463122764</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>717.24660909858244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>671.91875647896939</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>637.25628094632418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>593.70599117453912</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>539.49032431578632</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>496.8288159679152</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>439.94680483742047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>351.06866244602236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>291.52030704378564</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>177.75628478279614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C052-47E5-B83D-786613B528CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>elektryczna</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$I$63:$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>352404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>361555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>362030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>363045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>363510</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>367006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>368520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>368995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>370805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370427</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>371392</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>371752</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>372176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>372782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>374158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>374844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>375170</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>375541</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>375837</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>376228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>376655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>377010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>378094</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>380704</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>381868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>383966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3rezonanse'!$J$63:$J$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C052-47E5-B83D-786613B528CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1624365679"/>
+        <c:axId val="1624343711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1624365679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624343711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1624343711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624365679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1930,6 +3908,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2962,20 +5060,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>303728</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>24634</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188969</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>315969</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>442204</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>13617</xdr:rowOff>
+      <xdr:rowOff>185755</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3002,16 +6648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162345</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>568441</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>151329</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>545490</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,10 +6685,123 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6917DC0C-802F-6DCB-6905-2FC2510E44EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC40588-414D-5438-615C-583A45504567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA48D2D-A517-B07E-532A-CA0C78B20526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3080,7 +6839,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -3186,7 +6945,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3356,18 +7115,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FACB1-7A11-4243-9F19-93C43F882BE4}">
-  <dimension ref="B3:AB78"/>
+  <dimension ref="B2:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="R2" s="8"/>
+      <c r="S2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3375,2160 +7162,4369 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="U3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <v>22</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AG3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>298133</v>
       </c>
       <c r="D4">
+        <f>M19</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>3.4</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="G4">
-        <f>V$11*E4</f>
+      <c r="K4">
+        <f>AE$10*G4</f>
         <v>30.218568413075342</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>AH2^2*AH3/(4*AH4)</f>
+        <v>8.2466723274796677E-2</v>
+      </c>
+      <c r="AG4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="X4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AH4">
+        <f>SUM(AK7:AK12)</f>
+        <v>1488.3579112389878</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>303573</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>250</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G68" si="0">V$11*E5</f>
+      <c r="K5">
+        <f>AE$10*G5</f>
         <v>43.55028977178506</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>Y3^2*Y4/(4*Y5)</f>
-        <v>8.2466723274796677E-2</v>
-      </c>
-      <c r="X5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <f>SUM(AB8:AB13)</f>
-        <v>1488.3579112389878</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R5" s="2">
+        <v>16</v>
+      </c>
+      <c r="S5" s="2">
+        <v>510</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2">
+        <v>1160</v>
+      </c>
+      <c r="W5" s="2">
+        <v>65</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1010</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>306354</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>7.5</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>300</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="K6">
+        <f>AE$10*G6</f>
         <v>66.658606793548557</v>
       </c>
-      <c r="I6" s="2">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
-        <v>510</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>1160</v>
-      </c>
-      <c r="N6" s="2">
-        <v>65</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
-        <v>1010</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R6" s="2">
+        <v>15</v>
+      </c>
+      <c r="S6" s="2">
+        <v>480</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
+        <v>880</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>309153</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>9.6</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>350</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="K7">
+        <f>AE$10*G7</f>
         <v>85.32301669574214</v>
       </c>
-      <c r="I7" s="2">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>480</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>880</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="Z7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R7" s="2">
+        <v>14</v>
+      </c>
+      <c r="S7" s="2">
+        <v>400</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <v>720</v>
+      </c>
+      <c r="W7" s="2">
+        <v>49</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2">
+        <v>700</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1402.385</v>
+      </c>
+      <c r="AK7">
+        <f>AJ7*AE$2^AI7</f>
+        <v>1402.385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>310760</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>400</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="K8">
+        <f>AE$10*G8</f>
         <v>124.4293993479573</v>
       </c>
-      <c r="I8" s="2">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
-        <v>400</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>720</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="R8" s="2">
+        <v>13</v>
+      </c>
+      <c r="S8" s="2">
+        <v>310</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2">
+        <v>710</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>700</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1402.385</v>
-      </c>
-      <c r="AB8">
-        <f>AA8*V$3^Z8</f>
-        <v>1402.385</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AA8" s="2"/>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>5.0388130000000002</v>
+      </c>
+      <c r="AK8">
+        <f>AJ8*AE$2^AI8</f>
+        <v>110.853886</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>311662</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>15.1</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>450</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="K9">
+        <f>AE$10*G9</f>
         <v>159.98065630451651</v>
       </c>
-      <c r="I9" s="2">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
-        <v>310</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>710</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
-        <v>600</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>5.0388130000000002</v>
-      </c>
-      <c r="AB9">
-        <f>AA9*V$3^Z9</f>
-        <v>110.853886</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R9" s="2">
+        <v>12</v>
+      </c>
+      <c r="S9" s="2">
+        <v>250</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>590</v>
+      </c>
+      <c r="W9" s="2">
+        <v>37</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <f>-5.799136*10^-2</f>
+        <v>-5.7991359999999999E-2</v>
+      </c>
+      <c r="AK9">
+        <f>AJ9*AE$2^AI9</f>
+        <v>-28.067818240000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>312866</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>15.1</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>23.3</v>
       </c>
-      <c r="F10">
+      <c r="I10" s="9">
         <v>500</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="K10">
+        <f>AE$10*G10</f>
         <v>207.08607177195751</v>
       </c>
-      <c r="I10" s="2">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2">
-        <v>250</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>590</v>
-      </c>
-      <c r="N10" s="2">
-        <v>37</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>490</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <f>-5.799136*10^-2</f>
-        <v>-5.7991359999999999E-2</v>
-      </c>
-      <c r="AB10">
-        <f>AA10*V$3^Z10</f>
-        <v>-28.067818240000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R10" s="2">
+        <v>11</v>
+      </c>
+      <c r="S10" s="2">
+        <v>200</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>480</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AD10">
+        <f>9.81*AH4/2/COS(RADIANS((25)))^2</f>
+        <v>8887.8142391398069</v>
+      </c>
+      <c r="AE10">
+        <f>AD10/1000</f>
+        <v>8.8878142391398072</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <f>3.287156*10^-4</f>
+        <v>3.2871560000000003E-4</v>
+      </c>
+      <c r="AK10">
+        <f>AJ10*AE$2^AI10</f>
+        <v>3.5001637088000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>315484</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>34.200000000000003</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>450</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="K11">
+        <f>AE$10*G11</f>
         <v>303.96324697858142</v>
       </c>
-      <c r="I11" s="2">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
-        <v>200</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>480</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>400</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="U11">
-        <f>9.81*Y5/2/COS(RADIANS((25)))^2</f>
-        <v>8887.8142391398069</v>
-      </c>
-      <c r="V11">
-        <f>U11/1000</f>
-        <v>8.8878142391398072</v>
-      </c>
-      <c r="Z11">
-        <v>3</v>
-      </c>
-      <c r="AA11">
-        <f>3.287156*10^-4</f>
-        <v>3.2871560000000003E-4</v>
-      </c>
-      <c r="AB11">
-        <f>AA11*V$3^Z11</f>
-        <v>3.5001637088000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2">
+        <v>150</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2">
+        <v>390</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <f>-1.398845*10^-6</f>
+        <v>-1.3988449999999998E-6</v>
+      </c>
+      <c r="AK11">
+        <f>AJ11*AE$2^AI11</f>
+        <v>-0.32768783431999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>315924</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>27.3</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>400</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <f>AE$10*G12</f>
         <v>242.63732872851674</v>
       </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <v>150</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>390</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>310</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="Z12">
-        <v>4</v>
-      </c>
-      <c r="AA12">
-        <f>-1.398845*10^-6</f>
-        <v>-1.3988449999999998E-6</v>
-      </c>
-      <c r="AB12">
-        <f>AA12*V$3^Z12</f>
-        <v>-0.32768783431999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R12" s="2">
+        <v>9</v>
+      </c>
+      <c r="S12" s="2">
+        <v>100</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>300</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
+        <v>230</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+      <c r="AJ12">
+        <f>2.78786*10^-9</f>
+        <v>2.7878599999999999E-9</v>
+      </c>
+      <c r="AK12">
+        <f>AJ12*AE$2^AI12</f>
+        <v>1.4367604507519999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>316342</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>20.399999999999999</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>350</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
+      <c r="K13">
+        <f>AE$10*G13</f>
         <v>181.31141047845205</v>
       </c>
-      <c r="I13" s="2">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
-        <v>100</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>300</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
-        <v>230</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <f>2.78786*10^-9</f>
-        <v>2.7878599999999999E-9</v>
-      </c>
-      <c r="AB13">
-        <f>AA13*V$3^Z13</f>
-        <v>1.4367604507519999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R13" s="2">
+        <v>8</v>
+      </c>
+      <c r="S13" s="2">
+        <v>80</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
+        <v>200</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>317422</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>10.6</v>
       </c>
-      <c r="F14">
+      <c r="I14" s="10">
         <v>300</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="K14">
+        <f>AE$10*G14</f>
         <v>94.210830934881955</v>
       </c>
-      <c r="I14" s="2">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2">
-        <v>80</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>200</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R14" s="2">
+        <v>7</v>
+      </c>
+      <c r="S14" s="2">
+        <v>50</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>150</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>325969</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>350</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
+      <c r="K15">
+        <f>AE$10*G15</f>
         <v>79.990328152258257</v>
       </c>
-      <c r="I15" s="2">
-        <v>7</v>
-      </c>
-      <c r="J15" s="2">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>150</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="R15" s="2">
+        <v>6</v>
+      </c>
+      <c r="S15" s="2">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>80</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>60</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>329043</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15.1</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>11.4</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>400</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="K16">
+        <f>AE$10*G16</f>
         <v>101.3210823261938</v>
       </c>
-      <c r="I16" s="2">
-        <v>6</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="R16" s="2">
+        <v>5</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
         <v>10</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>80</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Z16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>330381</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>15.1</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>12.4</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>450</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="K17">
+        <f>AE$10*G17</f>
         <v>110.20889656533362</v>
       </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="R17" s="2">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>20</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="T17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18">
         <v>331900</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>15.1</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>16.3</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>500</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
+      <c r="K18">
+        <f>AE$10*G18</f>
         <v>144.87137209797885</v>
       </c>
-      <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="R18" s="2">
+        <v>3</v>
+      </c>
+      <c r="S18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="W18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>332604</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>15.1</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>19.7</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>550</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
+      <c r="K19">
+        <f>AE$10*G19</f>
         <v>175.08994051105421</v>
       </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
+      <c r="T19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2">
+      <c r="W19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
         <v>0</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Z19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>333274</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>23.3</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>600</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
+      <c r="K20">
+        <f>AE$10*G20</f>
         <v>207.08607177195751</v>
       </c>
-      <c r="I20" s="2">
-        <v>2</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="T20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="5">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2">
+      <c r="W20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="5">
         <v>0</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Z20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>334461</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>27.8</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>650</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
+      <c r="K21">
+        <f>AE$10*G21</f>
         <v>247.08123584808664</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>335354</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>15</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>30.4</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>700</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
+      <c r="K22">
+        <f>AE$10*G22</f>
         <v>270.1895528698501</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>335941</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>32.200000000000003</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>750</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
+      <c r="K23">
+        <f>AE$10*G23</f>
         <v>286.18761850030182</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>336464</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>15</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>34</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>800</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
+      <c r="K24">
+        <f>AE$10*G24</f>
         <v>302.18568413075343</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>336842</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>15</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>35.799999999999997</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>850</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
+      <c r="K25">
+        <f>AE$10*G25</f>
         <v>318.18374976120509</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>337262</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>38.6</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>900</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
+      <c r="K26">
+        <f>AE$10*G26</f>
         <v>343.06962963079656</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>337525</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>40.5</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>950</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
+      <c r="K27">
+        <f>AE$10*G27</f>
         <v>359.95647668516222</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>338042</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>15</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>44.2</v>
       </c>
-      <c r="F28">
+      <c r="I28" s="9">
         <v>1000</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
+      <c r="K28">
+        <f>AE$10*G28</f>
         <v>392.84138936997948</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>340236</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>14.5</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>52.8</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>950</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
+      <c r="K29">
+        <f>AE$10*G29</f>
         <v>469.27659182658181</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>340702</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>14.5</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>51.8</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>900</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
+      <c r="K30">
+        <f>AE$10*G30</f>
         <v>460.38877758744201</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>341276</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>14.5</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>49.4</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>850</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
+      <c r="K31">
+        <f>AE$10*G31</f>
         <v>439.05802341350648</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>342393</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>14.5</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>44.1</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>800</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
+      <c r="K32">
+        <f>AE$10*G32</f>
         <v>391.95260794606548</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>342812</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>14.5</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>40.5</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>750</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
+      <c r="K33">
+        <f>AE$10*G33</f>
         <v>359.95647668516222</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>343252</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>14.5</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>36.5</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>700</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
+      <c r="K34">
+        <f>AE$10*G34</f>
         <v>324.40521972860296</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
       <c r="C35">
         <v>343560</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>14.5</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>33.5</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>650</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
+      <c r="K35">
+        <f>AE$10*G35</f>
         <v>297.74177701118356</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>343932</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>14.5</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>30</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>600</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
+      <c r="K36">
+        <f>AE$10*G36</f>
         <v>266.63442717419423</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>344278</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>14.5</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>27.5</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>550</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
+      <c r="K37">
+        <f>AE$10*G37</f>
         <v>244.4148915763447</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>344694</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>14.5</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>24.9</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>500</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
+      <c r="K38">
+        <f>AE$10*G38</f>
         <v>221.30657455458118</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>344974</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>14.7</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>23.3</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>450</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
+      <c r="K39">
+        <f>AE$10*G39</f>
         <v>207.08607177195751</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>345493</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>14.8</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>20.399999999999999</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>400</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
+      <c r="K40">
+        <f>AE$10*G40</f>
         <v>181.31141047845205</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>345794</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>14.9</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>19</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>350</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
+      <c r="K41">
+        <f>AE$10*G41</f>
         <v>168.86847054365634</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>346599</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>15.2</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>300</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
+      <c r="K42">
+        <f>AE$10*G42</f>
         <v>135.09477643492505</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>347485</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>15</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>12</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>250</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
+      <c r="K43">
+        <f>AE$10*G43</f>
         <v>106.65377086967769</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>349223</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>5.2</v>
       </c>
-      <c r="F44">
+      <c r="I44" s="10">
         <v>200</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
+      <c r="K44">
+        <f>AE$10*G44</f>
         <v>46.216634043527002</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>353552</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>15.2</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>4.7</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>250</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
+      <c r="K45">
+        <f>AE$10*G45</f>
         <v>41.772726923957094</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>355491</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>15.3</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>8.1</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>300</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
+      <c r="K46">
+        <f>AE$10*G46</f>
         <v>71.99129533703244</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>356391</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>15.3</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>10.7</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>350</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
+      <c r="K47">
+        <f>AE$10*G47</f>
         <v>95.099612358795937</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>357284</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>15.4</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>13.8</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>400</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
+      <c r="K48">
+        <f>AE$10*G48</f>
         <v>122.65183650012935</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>357875</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>15.4</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>16.3</v>
       </c>
-      <c r="F49">
+      <c r="I49">
         <v>450</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
+      <c r="K49">
+        <f>AE$10*G49</f>
         <v>144.87137209797885</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>358374</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>15.4</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>19.2</v>
       </c>
-      <c r="F50">
+      <c r="I50">
         <v>500</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
+      <c r="K50">
+        <f>AE$10*G50</f>
         <v>170.64603339148428</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>358849</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>15.1</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>23</v>
       </c>
-      <c r="F51">
+      <c r="I51">
         <v>550</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
+      <c r="K51">
+        <f>AE$10*G51</f>
         <v>204.41972750021557</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>359206</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>15</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>26.1</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>600</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
+      <c r="K52">
+        <f>AE$10*G52</f>
         <v>231.97195164154897</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>359471</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>15</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>28.8</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>650</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
+      <c r="K53">
+        <f>AE$10*G53</f>
         <v>255.96905008722646</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>359864</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>15</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>33</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>700</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
+      <c r="K54">
+        <f>AE$10*G54</f>
         <v>293.29786989161363</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>360329</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>15</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>37.700000000000003</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>750</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
+      <c r="K55">
+        <f>AE$10*G55</f>
         <v>335.07059681557075</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>363825</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>14.8</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>54.8</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>800</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
+      <c r="K56">
+        <f>AE$10*G56</f>
         <v>487.05222030486141</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>364642</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>14.6</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>57.8</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>850</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
+      <c r="K57">
+        <f>AE$10*G57</f>
         <v>513.71566302228086</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>365339</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>14.5</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>64.8</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>900</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
+      <c r="K58">
+        <f>AE$10*G58</f>
         <v>575.93036269625952</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>365814</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>14.5</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>70.7</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>950</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
+      <c r="K59">
+        <f>AE$10*G59</f>
         <v>628.36846670718444</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>367624</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>14.5</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>88.3</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>900</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
+      <c r="K60">
+        <f>AE$10*G60</f>
         <v>784.79399731604497</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>367246</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>14.5</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>85.8</v>
       </c>
-      <c r="F61">
+      <c r="I61" s="9">
         <v>950</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
+      <c r="K61">
+        <f>AE$10*G61</f>
         <v>762.57446171819538</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>367662</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>14.5</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>88.6</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>900</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
+      <c r="K62">
+        <f>AE$10*G62</f>
         <v>787.46034158778684</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>368211</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>14.5</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>91.5</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>850</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
+      <c r="K63">
+        <f>AE$10*G63</f>
         <v>813.2350028812923</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>368571</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>14.5</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>93</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>800</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
+      <c r="K64">
+        <f>AE$10*G64</f>
         <v>826.56672424000203</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>368995</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>14.5</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>93.6</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>750</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
+      <c r="K65">
+        <f>AE$10*G65</f>
         <v>831.8994127834859</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>369601</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>14.5</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>92</v>
       </c>
-      <c r="F66">
+      <c r="I66">
         <v>700</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
+      <c r="K66">
+        <f>AE$10*G66</f>
         <v>817.67891000086229</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>370977</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>14.5</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>88.8</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>650</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="0"/>
+      <c r="K67">
+        <f>AE$10*G67</f>
         <v>789.23790443561484</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>371663</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>14.5</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>84.6</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>600</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="0"/>
+      <c r="K68">
+        <f>AE$10*G68</f>
         <v>751.90908463122764</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>371989</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>14.5</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>80.7</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>550</v>
       </c>
-      <c r="G69">
-        <f t="shared" ref="G69:G78" si="1">V$11*E69</f>
+      <c r="K69">
+        <f>AE$10*G69</f>
         <v>717.24660909858244</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>372360</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>14.5</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>75.599999999999994</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>500</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
+      <c r="K70">
+        <f>AE$10*G70</f>
         <v>671.91875647896939</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>372656</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>14.5</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>71.7</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>450</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
+      <c r="K71">
+        <f>AE$10*G71</f>
         <v>637.25628094632418</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>373047</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>14.5</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>66.8</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>400</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
+      <c r="K72">
+        <f>AE$10*G72</f>
         <v>593.70599117453912</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>373474</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>14.5</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>60.7</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>350</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
+      <c r="K73">
+        <f>AE$10*G73</f>
         <v>539.49032431578632</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <v>373829</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>14.8</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>55.9</v>
       </c>
-      <c r="F74">
+      <c r="I74">
         <v>300</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
+      <c r="K74">
+        <f>AE$10*G74</f>
         <v>496.8288159679152</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <v>374913</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>15</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>49.5</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>250</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
+      <c r="K75">
+        <f>AE$10*G75</f>
         <v>439.94680483742047</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <v>377523</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>39.5</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>200</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="1"/>
+      <c r="K76">
+        <f>AE$10*G76</f>
         <v>351.06866244602236</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <v>378687</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>15</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>32.799999999999997</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>150</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="1"/>
+      <c r="K77">
+        <f>AE$10*G77</f>
         <v>291.52030704378564</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>380785</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>15</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>20</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>100</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="1"/>
+      <c r="K78">
+        <f>AE$10*G78</f>
         <v>177.75628478279614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B62FEDA-B9D6-41ED-A0FE-ACE0C7984B2D}">
+  <dimension ref="A1:M97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="str">
+        <f>B1</f>
+        <v>f[Hz]</v>
+      </c>
+      <c r="K1" t="str">
+        <f>F1</f>
+        <v>Pa[mW]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>298133</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>3.4</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>30.2185684130753</v>
+      </c>
+      <c r="J2">
+        <f>B2</f>
+        <v>298133</v>
+      </c>
+      <c r="K2">
+        <f>E2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>303573</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <v>43.55028977178506</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="0">B3</f>
+        <v>303573</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">E3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>306354</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>7.5</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>66.658606793548557</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>306354</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>309153</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>9.6</v>
+      </c>
+      <c r="E5">
+        <v>350</v>
+      </c>
+      <c r="F5">
+        <v>85.32301669574214</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>309153</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>310760</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>124.4293993479573</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>310760</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>311662</v>
+      </c>
+      <c r="C7">
+        <v>15.1</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>450</v>
+      </c>
+      <c r="F7">
+        <v>159.98065630451651</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>311662</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>312866</v>
+      </c>
+      <c r="C8">
+        <v>15.1</v>
+      </c>
+      <c r="D8">
+        <v>23.3</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>207.08607177195751</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>312866</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>315484</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>450</v>
+      </c>
+      <c r="F9">
+        <v>303.96324697858142</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>315484</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>315924</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>27.3</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>242.63732872851674</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>315924</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>316342</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E11">
+        <v>350</v>
+      </c>
+      <c r="F11">
+        <v>181.31141047845205</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>316342</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J12:J16" si="2">B16</f>
+        <v>f[Hz]</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pr[mW]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>317422</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>10.6</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>94.210830934881955</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J30" si="3">B17+2194</f>
+        <v>319616</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>325969</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>350</v>
+      </c>
+      <c r="F18">
+        <v>79.990328152258257</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>328163</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>329043</v>
+      </c>
+      <c r="C19">
+        <v>15.1</v>
+      </c>
+      <c r="D19">
+        <v>11.4</v>
+      </c>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <v>101.3210823261938</v>
+      </c>
+      <c r="J19">
+        <f>B19+2194</f>
+        <v>331237</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>330381</v>
+      </c>
+      <c r="C20">
+        <v>15.1</v>
+      </c>
+      <c r="D20">
+        <v>12.4</v>
+      </c>
+      <c r="E20">
+        <v>450</v>
+      </c>
+      <c r="F20">
+        <v>110.20889656533362</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>332575</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>331900</v>
+      </c>
+      <c r="C21">
+        <v>15.1</v>
+      </c>
+      <c r="D21">
+        <v>16.3</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>144.87137209797885</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>334094</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>332604</v>
+      </c>
+      <c r="C22">
+        <v>15.1</v>
+      </c>
+      <c r="D22">
+        <v>19.7</v>
+      </c>
+      <c r="E22">
+        <v>550</v>
+      </c>
+      <c r="F22">
+        <v>175.08994051105421</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>334798</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>333274</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>23.3</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>207.08607177195751</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>335468</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>334461</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>27.8</v>
+      </c>
+      <c r="E24">
+        <v>650</v>
+      </c>
+      <c r="F24">
+        <v>247.08123584808664</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>336655</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>335354</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>30.4</v>
+      </c>
+      <c r="E25">
+        <v>700</v>
+      </c>
+      <c r="F25">
+        <v>270.1895528698501</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>337548</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>335941</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E26">
+        <v>750</v>
+      </c>
+      <c r="F26">
+        <v>286.18761850030182</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>338135</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>336464</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>800</v>
+      </c>
+      <c r="F27">
+        <v>302.18568413075343</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>338658</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>336842</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E28">
+        <v>850</v>
+      </c>
+      <c r="F28">
+        <v>318.18374976120509</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>339036</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>337262</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>38.6</v>
+      </c>
+      <c r="E29">
+        <v>900</v>
+      </c>
+      <c r="F29">
+        <v>343.06962963079656</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>339456</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>337525</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>40.5</v>
+      </c>
+      <c r="E30">
+        <v>950</v>
+      </c>
+      <c r="F30">
+        <v>359.95647668516222</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>339719</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>338042</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>44.2</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>392.84138936997948</v>
+      </c>
+      <c r="J31">
+        <f>B31+2194</f>
+        <v>340236</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" s="13">
+        <v>340236</v>
+      </c>
+      <c r="C32" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="D32" s="13">
+        <v>52.8</v>
+      </c>
+      <c r="E32" s="13">
+        <v>950</v>
+      </c>
+      <c r="F32" s="13">
+        <v>469.27659182658181</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J46" si="4">B32+2194</f>
+        <v>342430</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>340702</v>
+      </c>
+      <c r="C33">
+        <v>14.5</v>
+      </c>
+      <c r="D33">
+        <v>51.8</v>
+      </c>
+      <c r="E33">
+        <v>900</v>
+      </c>
+      <c r="F33">
+        <v>460.38877758744201</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>342896</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>341276</v>
+      </c>
+      <c r="C34">
+        <v>14.5</v>
+      </c>
+      <c r="D34">
+        <v>49.4</v>
+      </c>
+      <c r="E34">
+        <v>850</v>
+      </c>
+      <c r="F34">
+        <v>439.05802341350648</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>343470</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>342393</v>
+      </c>
+      <c r="C35">
+        <v>14.5</v>
+      </c>
+      <c r="D35">
+        <v>44.1</v>
+      </c>
+      <c r="E35">
+        <v>800</v>
+      </c>
+      <c r="F35">
+        <v>391.95260794606548</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>344587</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>342812</v>
+      </c>
+      <c r="C36">
+        <v>14.5</v>
+      </c>
+      <c r="D36">
+        <v>40.5</v>
+      </c>
+      <c r="E36">
+        <v>750</v>
+      </c>
+      <c r="F36">
+        <v>359.95647668516222</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>345006</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>343252</v>
+      </c>
+      <c r="C37">
+        <v>14.5</v>
+      </c>
+      <c r="D37">
+        <v>36.5</v>
+      </c>
+      <c r="E37">
+        <v>700</v>
+      </c>
+      <c r="F37">
+        <v>324.40521972860296</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>345446</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>343560</v>
+      </c>
+      <c r="C38">
+        <v>14.5</v>
+      </c>
+      <c r="D38">
+        <v>33.5</v>
+      </c>
+      <c r="E38">
+        <v>650</v>
+      </c>
+      <c r="F38">
+        <v>297.74177701118356</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>345754</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>343932</v>
+      </c>
+      <c r="C39">
+        <v>14.5</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>600</v>
+      </c>
+      <c r="F39">
+        <v>266.63442717419423</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>346126</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>344278</v>
+      </c>
+      <c r="C40">
+        <v>14.5</v>
+      </c>
+      <c r="D40">
+        <v>27.5</v>
+      </c>
+      <c r="E40">
+        <v>550</v>
+      </c>
+      <c r="F40">
+        <v>244.4148915763447</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>346472</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>344694</v>
+      </c>
+      <c r="C41">
+        <v>14.5</v>
+      </c>
+      <c r="D41">
+        <v>24.9</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>221.30657455458118</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>346888</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>344974</v>
+      </c>
+      <c r="C42">
+        <v>14.7</v>
+      </c>
+      <c r="D42">
+        <v>23.3</v>
+      </c>
+      <c r="E42">
+        <v>450</v>
+      </c>
+      <c r="F42">
+        <v>207.08607177195751</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>347168</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>345493</v>
+      </c>
+      <c r="C43">
+        <v>14.8</v>
+      </c>
+      <c r="D43">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <v>181.31141047845205</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>347687</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>345794</v>
+      </c>
+      <c r="C44">
+        <v>14.9</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>350</v>
+      </c>
+      <c r="F44">
+        <v>168.86847054365634</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>347988</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>346599</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>15.2</v>
+      </c>
+      <c r="E45">
+        <v>300</v>
+      </c>
+      <c r="F45">
+        <v>135.09477643492505</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>348793</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>347485</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>250</v>
+      </c>
+      <c r="F46">
+        <v>106.65377086967769</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>349679</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>41</v>
+      </c>
+      <c r="B57">
+        <v>349223</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>5.2</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>46.216634043527002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>353552</v>
+      </c>
+      <c r="C58">
+        <v>15.2</v>
+      </c>
+      <c r="D58">
+        <v>4.7</v>
+      </c>
+      <c r="E58">
+        <v>250</v>
+      </c>
+      <c r="F58">
+        <v>41.772726923957094</v>
+      </c>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>355491</v>
+      </c>
+      <c r="C59">
+        <v>15.3</v>
+      </c>
+      <c r="D59">
+        <v>8.1</v>
+      </c>
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="F59">
+        <v>71.99129533703244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>44</v>
+      </c>
+      <c r="B60">
+        <v>356391</v>
+      </c>
+      <c r="C60">
+        <v>15.3</v>
+      </c>
+      <c r="D60">
+        <v>10.7</v>
+      </c>
+      <c r="E60">
+        <v>350</v>
+      </c>
+      <c r="F60">
+        <v>95.099612358795937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>45</v>
+      </c>
+      <c r="B61">
+        <v>357284</v>
+      </c>
+      <c r="C61">
+        <v>15.4</v>
+      </c>
+      <c r="D61">
+        <v>13.8</v>
+      </c>
+      <c r="E61">
+        <v>400</v>
+      </c>
+      <c r="F61">
+        <v>122.65183650012935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>357875</v>
+      </c>
+      <c r="C62">
+        <v>15.4</v>
+      </c>
+      <c r="D62">
+        <v>16.3</v>
+      </c>
+      <c r="E62">
+        <v>450</v>
+      </c>
+      <c r="F62">
+        <v>144.87137209797885</v>
+      </c>
+      <c r="I62" t="str">
+        <f>B56</f>
+        <v>f[Hz]</v>
+      </c>
+      <c r="J62" t="str">
+        <f>E56</f>
+        <v>Pr[mW]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>47</v>
+      </c>
+      <c r="B63">
+        <v>358374</v>
+      </c>
+      <c r="C63">
+        <v>15.4</v>
+      </c>
+      <c r="D63">
+        <v>19.2</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+      <c r="F63">
+        <v>170.64603339148428</v>
+      </c>
+      <c r="I63" s="12">
+        <f>B57+3181</f>
+        <v>352404</v>
+      </c>
+      <c r="J63">
+        <f>E57</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>358849</v>
+      </c>
+      <c r="C64">
+        <v>15.1</v>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>550</v>
+      </c>
+      <c r="F64">
+        <v>204.41972750021557</v>
+      </c>
+      <c r="I64" s="12">
+        <f>B58+3181</f>
+        <v>356733</v>
+      </c>
+      <c r="J64">
+        <f>E58</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>359206</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>26.1</v>
+      </c>
+      <c r="E65">
+        <v>600</v>
+      </c>
+      <c r="F65">
+        <v>231.97195164154897</v>
+      </c>
+      <c r="I65" s="12">
+        <f>B59+3181</f>
+        <v>358672</v>
+      </c>
+      <c r="J65">
+        <f>E59</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <v>359471</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>28.8</v>
+      </c>
+      <c r="E66">
+        <v>650</v>
+      </c>
+      <c r="F66">
+        <v>255.96905008722646</v>
+      </c>
+      <c r="I66" s="12">
+        <f>B60+3181</f>
+        <v>359572</v>
+      </c>
+      <c r="J66">
+        <f>E60</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>51</v>
+      </c>
+      <c r="B67">
+        <v>359864</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <v>700</v>
+      </c>
+      <c r="F67">
+        <v>293.29786989161363</v>
+      </c>
+      <c r="I67" s="12">
+        <f>B61+3181</f>
+        <v>360465</v>
+      </c>
+      <c r="J67">
+        <f>E61</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>52</v>
+      </c>
+      <c r="B68">
+        <v>360329</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E68">
+        <v>750</v>
+      </c>
+      <c r="F68">
+        <v>335.07059681557075</v>
+      </c>
+      <c r="I68" s="12">
+        <f>B62+3181</f>
+        <v>361056</v>
+      </c>
+      <c r="J68">
+        <f>E62</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>53</v>
+      </c>
+      <c r="B69">
+        <v>363825</v>
+      </c>
+      <c r="C69">
+        <v>14.8</v>
+      </c>
+      <c r="D69">
+        <v>54.8</v>
+      </c>
+      <c r="E69">
+        <v>800</v>
+      </c>
+      <c r="F69">
+        <v>487.05222030486141</v>
+      </c>
+      <c r="I69" s="12">
+        <f>B63+3181</f>
+        <v>361555</v>
+      </c>
+      <c r="J69">
+        <f>E63</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>54</v>
+      </c>
+      <c r="B70">
+        <v>364642</v>
+      </c>
+      <c r="C70">
+        <v>14.6</v>
+      </c>
+      <c r="D70">
+        <v>57.8</v>
+      </c>
+      <c r="E70">
+        <v>850</v>
+      </c>
+      <c r="F70">
+        <v>513.71566302228086</v>
+      </c>
+      <c r="I70" s="12">
+        <f>B64+3181</f>
+        <v>362030</v>
+      </c>
+      <c r="J70">
+        <f>E64</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>55</v>
+      </c>
+      <c r="B71">
+        <v>365339</v>
+      </c>
+      <c r="C71">
+        <v>14.5</v>
+      </c>
+      <c r="D71">
+        <v>64.8</v>
+      </c>
+      <c r="E71">
+        <v>900</v>
+      </c>
+      <c r="F71">
+        <v>575.93036269625952</v>
+      </c>
+      <c r="I71" s="12">
+        <f>B65+3181</f>
+        <v>362387</v>
+      </c>
+      <c r="J71">
+        <f>E65</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>56</v>
+      </c>
+      <c r="B72">
+        <v>365814</v>
+      </c>
+      <c r="C72">
+        <v>14.5</v>
+      </c>
+      <c r="D72">
+        <v>70.7</v>
+      </c>
+      <c r="E72">
+        <v>950</v>
+      </c>
+      <c r="F72">
+        <v>628.36846670718444</v>
+      </c>
+      <c r="I72" s="12">
+        <f>B66+3181</f>
+        <v>362652</v>
+      </c>
+      <c r="J72">
+        <f>E66</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>57</v>
+      </c>
+      <c r="B73">
+        <v>367624</v>
+      </c>
+      <c r="C73">
+        <v>14.5</v>
+      </c>
+      <c r="D73">
+        <v>88.3</v>
+      </c>
+      <c r="E73">
+        <v>900</v>
+      </c>
+      <c r="F73">
+        <v>784.79399731604497</v>
+      </c>
+      <c r="I73" s="12">
+        <f>B67+3181</f>
+        <v>363045</v>
+      </c>
+      <c r="J73">
+        <f>E67</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>58</v>
+      </c>
+      <c r="B74">
+        <v>367246</v>
+      </c>
+      <c r="C74">
+        <v>14.5</v>
+      </c>
+      <c r="D74">
+        <v>85.8</v>
+      </c>
+      <c r="E74">
+        <v>950</v>
+      </c>
+      <c r="F74">
+        <v>762.57446171819538</v>
+      </c>
+      <c r="I74" s="12">
+        <f>B68+3181</f>
+        <v>363510</v>
+      </c>
+      <c r="J74">
+        <f>E68</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>59</v>
+      </c>
+      <c r="B75">
+        <v>367662</v>
+      </c>
+      <c r="C75">
+        <v>14.5</v>
+      </c>
+      <c r="D75">
+        <v>88.6</v>
+      </c>
+      <c r="E75">
+        <v>900</v>
+      </c>
+      <c r="F75">
+        <v>787.46034158778684</v>
+      </c>
+      <c r="I75" s="12">
+        <f>B69+3181</f>
+        <v>367006</v>
+      </c>
+      <c r="J75">
+        <f>E69</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>60</v>
+      </c>
+      <c r="B76">
+        <v>368211</v>
+      </c>
+      <c r="C76">
+        <v>14.5</v>
+      </c>
+      <c r="D76">
+        <v>91.5</v>
+      </c>
+      <c r="E76">
+        <v>850</v>
+      </c>
+      <c r="F76">
+        <v>813.2350028812923</v>
+      </c>
+      <c r="I76" s="12">
+        <f>B70+3181</f>
+        <v>367823</v>
+      </c>
+      <c r="J76">
+        <f>E70</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>61</v>
+      </c>
+      <c r="B77">
+        <v>368571</v>
+      </c>
+      <c r="C77">
+        <v>14.5</v>
+      </c>
+      <c r="D77">
+        <v>93</v>
+      </c>
+      <c r="E77">
+        <v>800</v>
+      </c>
+      <c r="F77">
+        <v>826.56672424000203</v>
+      </c>
+      <c r="I77" s="12">
+        <f>B71+3181</f>
+        <v>368520</v>
+      </c>
+      <c r="J77">
+        <f>E71</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>62</v>
+      </c>
+      <c r="B78" s="10">
+        <v>368995</v>
+      </c>
+      <c r="C78" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="D78" s="10">
+        <v>93.6</v>
+      </c>
+      <c r="E78" s="10">
+        <v>750</v>
+      </c>
+      <c r="F78" s="10">
+        <v>831.8994127834859</v>
+      </c>
+      <c r="I78" s="12">
+        <f>B72+3181</f>
+        <v>368995</v>
+      </c>
+      <c r="J78" s="10">
+        <f>E72</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>369601</v>
+      </c>
+      <c r="C79">
+        <v>14.5</v>
+      </c>
+      <c r="D79">
+        <v>92</v>
+      </c>
+      <c r="E79">
+        <v>700</v>
+      </c>
+      <c r="F79">
+        <v>817.67891000086229</v>
+      </c>
+      <c r="I79" s="12">
+        <f>B73+3181</f>
+        <v>370805</v>
+      </c>
+      <c r="J79">
+        <f>E73</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>370977</v>
+      </c>
+      <c r="C80">
+        <v>14.5</v>
+      </c>
+      <c r="D80">
+        <v>88.8</v>
+      </c>
+      <c r="E80">
+        <v>650</v>
+      </c>
+      <c r="F80">
+        <v>789.23790443561484</v>
+      </c>
+      <c r="I80" s="12">
+        <f>B74+3181</f>
+        <v>370427</v>
+      </c>
+      <c r="J80">
+        <f>E74</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>65</v>
+      </c>
+      <c r="B81">
+        <v>371663</v>
+      </c>
+      <c r="C81">
+        <v>14.5</v>
+      </c>
+      <c r="D81">
+        <v>84.6</v>
+      </c>
+      <c r="E81">
+        <v>600</v>
+      </c>
+      <c r="F81">
+        <v>751.90908463122764</v>
+      </c>
+      <c r="I81" s="12">
+        <f>B75+3181</f>
+        <v>370843</v>
+      </c>
+      <c r="J81">
+        <f>E75</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>66</v>
+      </c>
+      <c r="B82">
+        <v>371989</v>
+      </c>
+      <c r="C82">
+        <v>14.5</v>
+      </c>
+      <c r="D82">
+        <v>80.7</v>
+      </c>
+      <c r="E82">
+        <v>550</v>
+      </c>
+      <c r="F82">
+        <v>717.24660909858244</v>
+      </c>
+      <c r="I82" s="12">
+        <f>B76+3181</f>
+        <v>371392</v>
+      </c>
+      <c r="J82">
+        <f>E76</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>67</v>
+      </c>
+      <c r="B83">
+        <v>372360</v>
+      </c>
+      <c r="C83">
+        <v>14.5</v>
+      </c>
+      <c r="D83">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>671.91875647896939</v>
+      </c>
+      <c r="I83" s="12">
+        <f>B77+3181</f>
+        <v>371752</v>
+      </c>
+      <c r="J83">
+        <f>E77</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>68</v>
+      </c>
+      <c r="B84">
+        <v>372656</v>
+      </c>
+      <c r="C84">
+        <v>14.5</v>
+      </c>
+      <c r="D84">
+        <v>71.7</v>
+      </c>
+      <c r="E84">
+        <v>450</v>
+      </c>
+      <c r="F84">
+        <v>637.25628094632418</v>
+      </c>
+      <c r="I84" s="12">
+        <f>B78+3181</f>
+        <v>372176</v>
+      </c>
+      <c r="J84">
+        <f>E78</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>373047</v>
+      </c>
+      <c r="C85">
+        <v>14.5</v>
+      </c>
+      <c r="D85">
+        <v>66.8</v>
+      </c>
+      <c r="E85">
+        <v>400</v>
+      </c>
+      <c r="F85">
+        <v>593.70599117453912</v>
+      </c>
+      <c r="I85" s="12">
+        <f>B79+3181</f>
+        <v>372782</v>
+      </c>
+      <c r="J85">
+        <f>E79</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>70</v>
+      </c>
+      <c r="B86">
+        <v>373474</v>
+      </c>
+      <c r="C86">
+        <v>14.5</v>
+      </c>
+      <c r="D86">
+        <v>60.7</v>
+      </c>
+      <c r="E86">
+        <v>350</v>
+      </c>
+      <c r="F86">
+        <v>539.49032431578632</v>
+      </c>
+      <c r="I86" s="12">
+        <f>B80+3181</f>
+        <v>374158</v>
+      </c>
+      <c r="J86">
+        <f>E80</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>71</v>
+      </c>
+      <c r="B87">
+        <v>373829</v>
+      </c>
+      <c r="C87">
+        <v>14.8</v>
+      </c>
+      <c r="D87">
+        <v>55.9</v>
+      </c>
+      <c r="E87">
+        <v>300</v>
+      </c>
+      <c r="F87">
+        <v>496.8288159679152</v>
+      </c>
+      <c r="I87" s="12">
+        <f>B81+3181</f>
+        <v>374844</v>
+      </c>
+      <c r="J87">
+        <f>E81</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>72</v>
+      </c>
+      <c r="B88">
+        <v>374913</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>49.5</v>
+      </c>
+      <c r="E88">
+        <v>250</v>
+      </c>
+      <c r="F88">
+        <v>439.94680483742047</v>
+      </c>
+      <c r="I88" s="12">
+        <f>B82+3181</f>
+        <v>375170</v>
+      </c>
+      <c r="J88">
+        <f>E82</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>73</v>
+      </c>
+      <c r="B89">
+        <v>377523</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>39.5</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+      <c r="F89">
+        <v>351.06866244602236</v>
+      </c>
+      <c r="I89" s="12">
+        <f>B83+3181</f>
+        <v>375541</v>
+      </c>
+      <c r="J89">
+        <f>E83</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>74</v>
+      </c>
+      <c r="B90">
+        <v>378687</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E90">
+        <v>150</v>
+      </c>
+      <c r="F90">
+        <v>291.52030704378564</v>
+      </c>
+      <c r="I90" s="12">
+        <f>B84+3181</f>
+        <v>375837</v>
+      </c>
+      <c r="J90">
+        <f>E84</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>75</v>
+      </c>
+      <c r="B91">
+        <v>380785</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>177.75628478279614</v>
+      </c>
+      <c r="I91" s="12">
+        <f>B85+3181</f>
+        <v>376228</v>
+      </c>
+      <c r="J91">
+        <f>E85</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I92" s="12">
+        <f>B86+3181</f>
+        <v>376655</v>
+      </c>
+      <c r="J92">
+        <f>E86</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I93" s="12">
+        <f>B87+3181</f>
+        <v>377010</v>
+      </c>
+      <c r="J93">
+        <f>E87</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I94" s="12">
+        <f>B88+3181</f>
+        <v>378094</v>
+      </c>
+      <c r="J94">
+        <f>E88</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I95" s="12">
+        <f>B89+3181</f>
+        <v>380704</v>
+      </c>
+      <c r="J95">
+        <f>E89</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I96" s="12">
+        <f>B90+3181</f>
+        <v>381868</v>
+      </c>
+      <c r="J96">
+        <f>E90</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I97" s="12">
+        <f>B91+3181</f>
+        <v>383966</v>
+      </c>
+      <c r="J97">
+        <f>E91</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ultrasy_lab/cw3/lab3.xlsx
+++ b/ultrasy_lab/cw3/lab3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moje\studia\sem5\ultrasy_lab\cw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC73FC-8394-4E54-B439-8F68FA1E60F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DBCC8-7CA0-4382-8B13-8AEDF63E67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>r</t>
   </si>
@@ -92,133 +92,31 @@
     <t>Pe[mW]</t>
   </si>
   <si>
-    <t>39,7</t>
+    <t>$\Delta f$[Hz]</t>
   </si>
   <si>
-    <t>36,7</t>
+    <t>$\Delta U$[V]</t>
   </si>
   <si>
-    <t>31,9</t>
+    <t>$\Delta m$[mg]</t>
   </si>
   <si>
-    <t>27,4</t>
+    <t>$\Delta P_r $[mW]</t>
   </si>
   <si>
-    <t>23,6</t>
+    <t>$\Delta P_a $[mW]</t>
   </si>
   <si>
-    <t>19,9</t>
+    <t>szer pasma1</t>
   </si>
   <si>
-    <t>17,4</t>
+    <t>szer pasma3</t>
   </si>
   <si>
-    <t>14,1</t>
+    <t>3db</t>
   </si>
   <si>
-    <t>11,6</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>2,6</t>
-  </si>
-  <si>
-    <t>56,9</t>
-  </si>
-  <si>
-    <t>43,4</t>
-  </si>
-  <si>
-    <t>31,0</t>
-  </si>
-  <si>
-    <t>26,5</t>
-  </si>
-  <si>
-    <t>22,1</t>
-  </si>
-  <si>
-    <t>17,7</t>
-  </si>
-  <si>
-    <t>10,1</t>
-  </si>
-  <si>
-    <t>14,2</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>119,2</t>
-  </si>
-  <si>
-    <t>104,7</t>
-  </si>
-  <si>
-    <t>88,1</t>
-  </si>
-  <si>
-    <t>77,6</t>
-  </si>
-  <si>
-    <t>63,8</t>
-  </si>
-  <si>
-    <t>54,0</t>
-  </si>
-  <si>
-    <t>45,7</t>
-  </si>
-  <si>
-    <t>36,3</t>
-  </si>
-  <si>
-    <t>27,9</t>
-  </si>
-  <si>
-    <t>17,9</t>
-  </si>
-  <si>
-    <t>15,9</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>7,6</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>1,7</t>
+    <t>szer pasma2</t>
   </si>
 </sst>
 </file>
@@ -235,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,22 +217,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,7 +1061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Arkusz1!$G$3</c:f>
+              <c:f>Arkusz1!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1423,7 +1328,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$G$4:$G$78</c:f>
+              <c:f>Arkusz1!$H$4:$H$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
@@ -2966,16 +2871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>303728</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>24634</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>315969</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>13617</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>218276</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>62464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3002,16 +2907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162345</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106815</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>568441</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>151329</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>402364</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3356,18 +3261,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FACB1-7A11-4243-9F19-93C43F882BE4}">
-  <dimension ref="B3:AB78"/>
+  <dimension ref="B3:AM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3383,39 +3293,54 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="U3" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AF3" t="s">
         <v>7</v>
       </c>
-      <c r="V3">
+      <c r="AG3">
         <v>22</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AI3" t="s">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="AJ3">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>298133</v>
       </c>
       <c r="D4">
@@ -3428,37 +3353,55 @@
         <v>200</v>
       </c>
       <c r="G4">
-        <f>V$11*E4</f>
+        <f>1.5 * 3000/100</f>
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <f>AG$11*E4</f>
         <v>30.218568413075342</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5">
+      <c r="I4">
+        <f>AG$11*M$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
+      <c r="L4">
+        <f xml:space="preserve"> 1.5 * 20 /100</f>
+        <v>0.3</v>
+      </c>
+      <c r="M4">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7">
         <v>2</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="X4" t="s">
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AI4" t="s">
         <v>2</v>
       </c>
-      <c r="Y4">
+      <c r="AJ4">
         <v>340000</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>303573</v>
       </c>
       <c r="D5">
@@ -3471,59 +3414,67 @@
         <v>250</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="0">V$11*E5</f>
+        <f t="shared" ref="G5:G68" si="0">1.5 * 3000/100</f>
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <f>AG$11*E5</f>
         <v>43.55028977178506</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5">
+        <f t="shared" ref="I5:I68" si="1">AG$11*M$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AF5" t="s">
         <v>0</v>
       </c>
-      <c r="V5">
-        <f>Y3^2*Y4/(4*Y5)</f>
+      <c r="AG5">
+        <f>AJ3^2*AJ4/(4*AJ5)</f>
         <v>8.2466723274796677E-2</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AI5" t="s">
         <v>3</v>
       </c>
-      <c r="Y5">
-        <f>SUM(AB8:AB13)</f>
+      <c r="AJ5">
+        <f>SUM(AM8:AM13)</f>
         <v>1488.3579112389878</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>306354</v>
       </c>
       <c r="D6">
@@ -3537,38 +3488,55 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <f>AG$11*E6</f>
         <v>66.658606793548557</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T6" s="2">
         <v>16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="U6" s="2">
         <v>510</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
+      <c r="V6" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="W6" s="2">
+        <f>$AG$11 * V6</f>
+        <v>352.84622529385035</v>
+      </c>
+      <c r="X6" s="2">
         <v>1160</v>
       </c>
-      <c r="N6" s="2">
+      <c r="Y6" s="2">
         <v>65</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="Z6" s="2">
+        <f>$AG$11 * Y6</f>
+        <v>577.70792554408752</v>
+      </c>
+      <c r="AA6" s="2">
         <v>1010</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB6" s="2">
+        <v>119.2</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>$AG$11 * AB6</f>
+        <v>1059.4274573054649</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>309153</v>
       </c>
       <c r="D7">
@@ -3582,47 +3550,64 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f>AG$11*E7</f>
         <v>85.32301669574214</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T7" s="2">
         <v>15</v>
       </c>
-      <c r="J7" s="2">
+      <c r="U7" s="2">
         <v>480</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
+      <c r="V7" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:W21" si="2">$AG$11 * V7</f>
+        <v>326.18278257643095</v>
+      </c>
+      <c r="X7" s="2">
         <v>1000</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="Y7" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z21" si="3">$AG$11 * Y7</f>
+        <v>505.716630207055</v>
+      </c>
+      <c r="AA7" s="2">
         <v>880</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="Z7" t="s">
+      <c r="AB7" s="2">
+        <v>104.7</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" ref="AC7:AC21" si="4">$AG$11 * AB7</f>
+        <v>930.55415083793787</v>
+      </c>
+      <c r="AK7" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AL7" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AM7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>310760</v>
       </c>
       <c r="D8">
@@ -3636,48 +3621,65 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <f>AG$11*E8</f>
         <v>124.4293993479573</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T8" s="2">
         <v>14</v>
       </c>
-      <c r="J8" s="2">
+      <c r="U8" s="2">
         <v>400</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
+      <c r="V8" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="2"/>
+        <v>283.52127422855983</v>
+      </c>
+      <c r="X8" s="2">
         <v>720</v>
       </c>
-      <c r="N8" s="2">
+      <c r="Y8" s="2">
         <v>49</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
+      <c r="Z8" s="2">
+        <f t="shared" si="3"/>
+        <v>435.50289771785054</v>
+      </c>
+      <c r="AA8" s="2">
         <v>700</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="Z8">
+      <c r="AB8" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="4"/>
+        <v>783.01643446821697</v>
+      </c>
+      <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AL8">
         <v>1402.385</v>
       </c>
-      <c r="AB8">
-        <f>AA8*V$3^Z8</f>
+      <c r="AM8">
+        <f>AL8*AG$3^AK8</f>
         <v>1402.385</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>311662</v>
       </c>
       <c r="D9">
@@ -3691,48 +3693,65 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <f>AG$11*E9</f>
         <v>159.98065630451651</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T9" s="2">
         <v>13</v>
       </c>
-      <c r="J9" s="2">
+      <c r="U9" s="2">
         <v>310</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="V9" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="2"/>
+        <v>243.5261101524307</v>
+      </c>
+      <c r="X9" s="2">
         <v>710</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
+      <c r="Y9" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>385.73113797866762</v>
+      </c>
+      <c r="AA9" s="2">
         <v>600</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="Z9">
+      <c r="AB9" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="4"/>
+        <v>689.69438495724899</v>
+      </c>
+      <c r="AK9">
         <v>1</v>
       </c>
-      <c r="AA9">
+      <c r="AL9">
         <v>5.0388130000000002</v>
       </c>
-      <c r="AB9">
-        <f>AA9*V$3^Z9</f>
+      <c r="AM9">
+        <f>AL9*AG$3^AK9</f>
         <v>110.853886</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>312866</v>
       </c>
       <c r="D10">
@@ -3746,55 +3765,75 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <f>AG$11*E10</f>
         <v>207.08607177195751</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="2">
         <v>12</v>
       </c>
-      <c r="J10" s="2">
+      <c r="U10" s="2">
         <v>250</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
+      <c r="V10" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="2"/>
+        <v>209.75241604369947</v>
+      </c>
+      <c r="X10" s="2">
         <v>590</v>
       </c>
-      <c r="N10" s="2">
+      <c r="Y10" s="2">
         <v>37</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>328.84912684817289</v>
+      </c>
+      <c r="AA10" s="2">
         <v>490</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="U10" t="s">
+      <c r="AB10" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="4"/>
+        <v>567.04254845711966</v>
+      </c>
+      <c r="AF10" t="s">
         <v>8</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AG10" t="s">
         <v>9</v>
       </c>
-      <c r="Z10">
+      <c r="AK10">
         <v>2</v>
       </c>
-      <c r="AA10">
+      <c r="AL10">
         <f>-5.799136*10^-2</f>
         <v>-5.7991359999999999E-2</v>
       </c>
-      <c r="AB10">
-        <f>AA10*V$3^Z10</f>
+      <c r="AM10">
+        <f>AL10*AG$3^AK10</f>
         <v>-28.067818240000001</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>315484</v>
       </c>
       <c r="D11">
@@ -3808,57 +3847,81 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AG$11*E11</f>
         <v>303.96324697858142</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <f>H11/10^0.3</f>
+        <v>152.34249887755854</v>
+      </c>
+      <c r="T11" s="2">
         <v>11</v>
       </c>
-      <c r="J11" s="2">
+      <c r="U11" s="2">
         <v>200</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="V11" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="2"/>
+        <v>176.86750335888215</v>
+      </c>
+      <c r="X11" s="2">
         <v>480</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="Y11" s="2">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="3"/>
+        <v>275.52224141333403</v>
+      </c>
+      <c r="AA11" s="2">
         <v>400</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="U11">
-        <f>9.81*Y5/2/COS(RADIANS((25)))^2</f>
+      <c r="AB11" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="4"/>
+        <v>479.9419689135496</v>
+      </c>
+      <c r="AF11">
+        <f>9.81*AJ5/2/COS(RADIANS((25)))^2</f>
         <v>8887.8142391398069</v>
       </c>
-      <c r="V11">
-        <f>U11/1000</f>
+      <c r="AG11">
+        <f>AF11/1000</f>
         <v>8.8878142391398072</v>
       </c>
-      <c r="Z11">
+      <c r="AK11">
         <v>3</v>
       </c>
-      <c r="AA11">
+      <c r="AL11">
         <f>3.287156*10^-4</f>
         <v>3.2871560000000003E-4</v>
       </c>
-      <c r="AB11">
-        <f>AA11*V$3^Z11</f>
+      <c r="AM11">
+        <f>AL11*AG$3^AK11</f>
         <v>3.5001637088000002</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>315924</v>
       </c>
       <c r="D12">
@@ -3872,49 +3935,66 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <f>AG$11*E12</f>
         <v>242.63732872851674</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="2">
+      <c r="U12" s="2">
         <v>150</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="V12" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="2"/>
+        <v>154.64796776103265</v>
+      </c>
+      <c r="X12" s="2">
         <v>390</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="Y12" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="3"/>
+        <v>235.5270773372049</v>
+      </c>
+      <c r="AA12" s="2">
         <v>310</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="Z12">
+      <c r="AB12" s="2">
+        <v>45.7</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="4"/>
+        <v>406.17311072868921</v>
+      </c>
+      <c r="AK12">
         <v>4</v>
       </c>
-      <c r="AA12">
+      <c r="AL12">
         <f>-1.398845*10^-6</f>
         <v>-1.3988449999999998E-6</v>
       </c>
-      <c r="AB12">
-        <f>AA12*V$3^Z12</f>
+      <c r="AM12">
+        <f>AL12*AG$3^AK12</f>
         <v>-0.32768783431999998</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>316342</v>
       </c>
       <c r="D13">
@@ -3928,49 +4008,66 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <f>AG$11*E13</f>
         <v>181.31141047845205</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T13" s="2">
         <v>9</v>
       </c>
-      <c r="J13" s="2">
+      <c r="U13" s="2">
         <v>100</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
+      <c r="V13" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="2"/>
+        <v>125.31818077187128</v>
+      </c>
+      <c r="X13" s="2">
         <v>300</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
+      <c r="Y13" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="3"/>
+        <v>196.42069468498974</v>
+      </c>
+      <c r="AA13" s="2">
         <v>230</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="Z13">
+      <c r="AB13" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="4"/>
+        <v>322.62765688077496</v>
+      </c>
+      <c r="AK13">
         <v>5</v>
       </c>
-      <c r="AA13">
+      <c r="AL13">
         <f>2.78786*10^-9</f>
         <v>2.7878599999999999E-9</v>
       </c>
-      <c r="AB13">
-        <f>AA13*V$3^Z13</f>
+      <c r="AM13">
+        <f>AL13*AG$3^AK13</f>
         <v>1.4367604507519999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>317422</v>
       </c>
       <c r="D14">
@@ -3984,38 +4081,55 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <f>AG$11*E14</f>
         <v>94.210830934881955</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T14" s="2">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="U14" s="2">
         <v>80</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
+      <c r="V14" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="2"/>
+        <v>103.09864517402175</v>
+      </c>
+      <c r="X14" s="2">
         <v>200</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2">
+      <c r="Y14" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="3"/>
+        <v>157.31431203277458</v>
+      </c>
+      <c r="AA14" s="2">
         <v>180</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB14" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="4"/>
+        <v>247.9700172720006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>325969</v>
       </c>
       <c r="D15">
@@ -4029,38 +4143,55 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <f>AG$11*E15</f>
         <v>79.990328152258257</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T15" s="2">
         <v>7</v>
       </c>
-      <c r="J15" s="2">
+      <c r="U15" s="2">
         <v>50</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
+      <c r="V15" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="2"/>
+        <v>81.767891000086223</v>
+      </c>
+      <c r="X15" s="2">
         <v>150</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
+      <c r="Y15" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="3"/>
+        <v>126.20696219578525</v>
+      </c>
+      <c r="AA15" s="2">
         <v>100</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="AB15" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="4"/>
+        <v>159.09187488060255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>329043</v>
       </c>
       <c r="D16">
@@ -4074,38 +4205,55 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <f>AG$11*E16</f>
         <v>101.3210823261938</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="U16" s="2">
         <v>10</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
+      <c r="V16" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="2"/>
+        <v>63.992262521806616</v>
+      </c>
+      <c r="X16" s="2">
         <v>80</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="Y16" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="3"/>
+        <v>89.766923815312055</v>
+      </c>
+      <c r="AA16" s="2">
         <v>60</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB16" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="4"/>
+        <v>141.31624640232295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>330381</v>
       </c>
       <c r="D17">
@@ -4119,34 +4267,51 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <f>AG$11*E17</f>
         <v>110.20889656533362</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
+      <c r="V17" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="2"/>
+        <v>47.99419689135496</v>
+      </c>
+      <c r="X17" s="2">
         <v>20</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2">
+      <c r="Y17" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="3"/>
+        <v>64.881043945720592</v>
+      </c>
+      <c r="AA17" s="2">
         <v>10</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB17" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="4"/>
+        <v>99.543519478365837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>15</v>
       </c>
@@ -4164,38 +4329,55 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <f>AG$11*E18</f>
         <v>144.87137209797885</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T18" s="2">
         <v>4</v>
       </c>
-      <c r="J18" s="2">
+      <c r="U18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="V18" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="2"/>
+        <v>37.328819804387194</v>
+      </c>
+      <c r="X18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2">
+      <c r="Y18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="3"/>
+        <v>44.439071195699036</v>
+      </c>
+      <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB18" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="4"/>
+        <v>67.547388217462526</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>332604</v>
       </c>
       <c r="D19">
@@ -4209,38 +4391,55 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <f>AG$11*E19</f>
         <v>175.08994051105421</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T19" s="2">
         <v>3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
+      <c r="V19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="2"/>
+        <v>28.441005565247384</v>
+      </c>
+      <c r="X19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2">
+      <c r="Y19" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="3"/>
+        <v>31.996131260903308</v>
+      </c>
+      <c r="AA19" s="2">
         <v>0</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB19" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="4"/>
+        <v>44.439071195699036</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>333274</v>
       </c>
       <c r="D20">
@@ -4254,38 +4453,55 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <f>AG$11*E20</f>
         <v>207.08607177195751</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="V20" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="2"/>
+        <v>23.108317021763501</v>
+      </c>
+      <c r="X20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2">
+      <c r="Y20" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="3"/>
+        <v>21.330754173935535</v>
+      </c>
+      <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB20" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AC20" s="2">
+        <f>$AG$11 * AB20</f>
+        <v>23.99709844567748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>334461</v>
       </c>
       <c r="D21">
@@ -4299,35 +4515,55 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <f>AG$11*E21</f>
         <v>247.08123584808664</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="T21" s="5">
         <v>1</v>
       </c>
-      <c r="J21" s="8">
+      <c r="U21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="8">
+      <c r="V21" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="2"/>
+        <v>21.330754173935535</v>
+      </c>
+      <c r="X21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="Y21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="3"/>
+        <v>17.775628478279614</v>
+      </c>
+      <c r="AA21" s="5">
         <v>0</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="AB21" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="4"/>
+        <v>15.109284206537671</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>335354</v>
       </c>
       <c r="D22">
@@ -4341,14 +4577,22 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <f>AG$11*E22</f>
         <v>270.1895528698501</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>335941</v>
       </c>
       <c r="D23">
@@ -4362,14 +4606,22 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <f>AG$11*E23</f>
         <v>286.18761850030182</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>336464</v>
       </c>
       <c r="D24">
@@ -4383,14 +4635,22 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <f>AG$11*E24</f>
         <v>302.18568413075343</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>336842</v>
       </c>
       <c r="D25">
@@ -4404,14 +4664,22 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <f>AG$11*E25</f>
         <v>318.18374976120509</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>337262</v>
       </c>
       <c r="D26">
@@ -4425,14 +4693,22 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <f>AG$11*E26</f>
         <v>343.06962963079656</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>337525</v>
       </c>
       <c r="D27">
@@ -4446,14 +4722,22 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <f>AG$11*E27</f>
         <v>359.95647668516222</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>338042</v>
       </c>
       <c r="D28">
@@ -4467,14 +4751,22 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <f>AG$11*E28</f>
         <v>392.84138936997948</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>340236</v>
       </c>
       <c r="D29">
@@ -4488,14 +4780,25 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H29" s="9">
+        <f>AG$11*E29</f>
         <v>469.27659182658181</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>340702</v>
       </c>
       <c r="D30">
@@ -4509,14 +4812,29 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <f>AG$11*E30</f>
         <v>460.38877758744201</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <f>H29/10^0.3</f>
+        <v>235.19543686359913</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>341276</v>
       </c>
       <c r="D31">
@@ -4530,14 +4848,22 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <f>AG$11*E31</f>
         <v>439.05802341350648</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>342393</v>
       </c>
       <c r="D32">
@@ -4551,14 +4877,22 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <f>AG$11*E32</f>
         <v>391.95260794606548</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>342812</v>
       </c>
       <c r="D33">
@@ -4572,14 +4906,22 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <f>AG$11*E33</f>
         <v>359.95647668516222</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>343252</v>
       </c>
       <c r="D34">
@@ -4593,10 +4935,18 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <f>AG$11*E34</f>
         <v>324.40521972860296</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>32</v>
       </c>
@@ -4614,14 +4964,22 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H35">
+        <f>AG$11*E35</f>
         <v>297.74177701118356</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>343932</v>
       </c>
       <c r="D36">
@@ -4635,14 +4993,22 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H36">
+        <f>AG$11*E36</f>
         <v>266.63442717419423</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>344278</v>
       </c>
       <c r="D37">
@@ -4656,14 +5022,22 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H37">
+        <f>AG$11*E37</f>
         <v>244.4148915763447</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>344694</v>
       </c>
       <c r="D38">
@@ -4677,14 +5051,22 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <f>AG$11*E38</f>
         <v>221.30657455458118</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>344974</v>
       </c>
       <c r="D39">
@@ -4698,14 +5080,22 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <f>AG$11*E39</f>
         <v>207.08607177195751</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>345493</v>
       </c>
       <c r="D40">
@@ -4719,14 +5109,22 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <f>AG$11*E40</f>
         <v>181.31141047845205</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>345794</v>
       </c>
       <c r="D41">
@@ -4740,14 +5138,22 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H41">
+        <f>AG$11*E41</f>
         <v>168.86847054365634</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>346599</v>
       </c>
       <c r="D42">
@@ -4761,14 +5167,22 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H42">
+        <f>AG$11*E42</f>
         <v>135.09477643492505</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>347485</v>
       </c>
       <c r="D43">
@@ -4782,14 +5196,22 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H43">
+        <f>AG$11*E43</f>
         <v>106.65377086967769</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>349223</v>
       </c>
       <c r="D44">
@@ -4803,14 +5225,22 @@
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H44">
+        <f>AG$11*E44</f>
         <v>46.216634043527002</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>353552</v>
       </c>
       <c r="D45">
@@ -4824,14 +5254,22 @@
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H45">
+        <f>AG$11*E45</f>
         <v>41.772726923957094</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>355491</v>
       </c>
       <c r="D46">
@@ -4845,14 +5283,22 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <f>AG$11*E46</f>
         <v>71.99129533703244</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>356391</v>
       </c>
       <c r="D47">
@@ -4866,14 +5312,22 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <f>AG$11*E47</f>
         <v>95.099612358795937</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>357284</v>
       </c>
       <c r="D48">
@@ -4887,14 +5341,22 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H48">
+        <f>AG$11*E48</f>
         <v>122.65183650012935</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>357875</v>
       </c>
       <c r="D49">
@@ -4908,14 +5370,22 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <f>AG$11*E49</f>
         <v>144.87137209797885</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>47</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>358374</v>
       </c>
       <c r="D50">
@@ -4929,14 +5399,22 @@
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H50">
+        <f>AG$11*E50</f>
         <v>170.64603339148428</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="4">
         <v>358849</v>
       </c>
       <c r="D51">
@@ -4950,14 +5428,22 @@
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H51">
+        <f>AG$11*E51</f>
         <v>204.41972750021557</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>359206</v>
       </c>
       <c r="D52">
@@ -4971,14 +5457,22 @@
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H52">
+        <f>AG$11*E52</f>
         <v>231.97195164154897</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>359471</v>
       </c>
       <c r="D53">
@@ -4992,14 +5486,22 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H53">
+        <f>AG$11*E53</f>
         <v>255.96905008722646</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>51</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>359864</v>
       </c>
       <c r="D54">
@@ -5013,14 +5515,22 @@
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H54">
+        <f>AG$11*E54</f>
         <v>293.29786989161363</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>52</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="4">
         <v>360329</v>
       </c>
       <c r="D55">
@@ -5034,14 +5544,22 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H55">
+        <f>AG$11*E55</f>
         <v>335.07059681557075</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>53</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>363825</v>
       </c>
       <c r="D56">
@@ -5055,14 +5573,22 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H56">
+        <f>AG$11*E56</f>
         <v>487.05222030486141</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>364642</v>
       </c>
       <c r="D57">
@@ -5076,14 +5602,22 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H57">
+        <f>AG$11*E57</f>
         <v>513.71566302228086</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>55</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>365339</v>
       </c>
       <c r="D58">
@@ -5097,14 +5631,22 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H58">
+        <f>AG$11*E58</f>
         <v>575.93036269625952</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>56</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>365814</v>
       </c>
       <c r="D59">
@@ -5118,14 +5660,22 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <f>AG$11*E59</f>
         <v>628.36846670718444</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>57</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>367624</v>
       </c>
       <c r="D60">
@@ -5139,14 +5689,22 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H60">
+        <f>AG$11*E60</f>
         <v>784.79399731604497</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>58</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>367246</v>
       </c>
       <c r="D61">
@@ -5160,14 +5718,22 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H61">
+        <f>AG$11*E61</f>
         <v>762.57446171819538</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>367662</v>
       </c>
       <c r="D62">
@@ -5181,14 +5747,22 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H62">
+        <f>AG$11*E62</f>
         <v>787.46034158778684</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>368211</v>
       </c>
       <c r="D63">
@@ -5202,14 +5776,22 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H63">
+        <f>AG$11*E63</f>
         <v>813.2350028812923</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>368571</v>
       </c>
       <c r="D64">
@@ -5223,14 +5805,22 @@
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H64">
+        <f>AG$11*E64</f>
         <v>826.56672424000203</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>62</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>368995</v>
       </c>
       <c r="D65">
@@ -5244,14 +5834,25 @@
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H65" s="9">
+        <f>AG$11*E65</f>
         <v>831.8994127834859</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>369601</v>
       </c>
       <c r="D66">
@@ -5265,14 +5866,29 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H66">
+        <f>AG$11*E66</f>
         <v>817.67891000086229</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66">
+        <f>H65/10^0.3</f>
+        <v>416.93736534910755</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>64</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>370977</v>
       </c>
       <c r="D67">
@@ -5286,14 +5902,22 @@
       </c>
       <c r="G67">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H67">
+        <f>AG$11*E67</f>
         <v>789.23790443561484</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>65</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>371663</v>
       </c>
       <c r="D68">
@@ -5307,14 +5931,22 @@
       </c>
       <c r="G68">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H68">
+        <f>AG$11*E68</f>
         <v>751.90908463122764</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>371989</v>
       </c>
       <c r="D69">
@@ -5327,15 +5959,23 @@
         <v>550</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G78" si="1">V$11*E69</f>
+        <f t="shared" ref="G69:G78" si="5">1.5 * 3000/100</f>
+        <v>45</v>
+      </c>
+      <c r="H69">
+        <f>AG$11*E69</f>
         <v>717.24660909858244</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <f t="shared" ref="I69:I78" si="6">AG$11*M$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>372360</v>
       </c>
       <c r="D70">
@@ -5348,15 +5988,23 @@
         <v>500</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H70">
+        <f>AG$11*E70</f>
         <v>671.91875647896939</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>68</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>372656</v>
       </c>
       <c r="D71">
@@ -5369,15 +6017,23 @@
         <v>450</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H71">
+        <f>AG$11*E71</f>
         <v>637.25628094632418</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>373047</v>
       </c>
       <c r="D72">
@@ -5390,15 +6046,23 @@
         <v>400</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H72">
+        <f>AG$11*E72</f>
         <v>593.70599117453912</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>70</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>373474</v>
       </c>
       <c r="D73">
@@ -5411,15 +6075,23 @@
         <v>350</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H73">
+        <f>AG$11*E73</f>
         <v>539.49032431578632</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>71</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="4">
         <v>373829</v>
       </c>
       <c r="D74">
@@ -5432,15 +6104,23 @@
         <v>300</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H74">
+        <f>AG$11*E74</f>
         <v>496.8288159679152</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>72</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="4">
         <v>374913</v>
       </c>
       <c r="D75">
@@ -5453,15 +6133,23 @@
         <v>250</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H75">
+        <f>AG$11*E75</f>
         <v>439.94680483742047</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>73</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="4">
         <v>377523</v>
       </c>
       <c r="D76">
@@ -5474,15 +6162,23 @@
         <v>200</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H76">
+        <f>AG$11*E76</f>
         <v>351.06866244602236</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>74</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="4">
         <v>378687</v>
       </c>
       <c r="D77">
@@ -5495,15 +6191,23 @@
         <v>150</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H77">
+        <f>AG$11*E77</f>
         <v>291.52030704378564</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>75</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="4">
         <v>380785</v>
       </c>
       <c r="D78">
@@ -5516,17 +6220,25 @@
         <v>100</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H78">
+        <f>AG$11*E78</f>
         <v>177.75628478279614</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>0.88878142391398074</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ultrasy_lab/cw3/lab3.xlsx
+++ b/ultrasy_lab/cw3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moje\studia\sem5\ultrasy_lab\cw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DBCC8-7CA0-4382-8B13-8AEDF63E67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308BC2CD-2FD1-40A0-9EFC-7C75FAE13449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>r</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>szer pasma2</t>
+  </si>
+  <si>
+    <t>natezenie</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>3db spadek</t>
+  </si>
+  <si>
+    <t>mW/mm^2</t>
+  </si>
+  <si>
+    <t>I [mW/mm$^2$]</t>
+  </si>
+  <si>
+    <t>$\Delta I $[mW/mm$^2$]</t>
   </si>
 </sst>
 </file>
@@ -224,6 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,7 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3263,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FACB1-7A11-4243-9F19-93C43F882BE4}">
   <dimension ref="B3:AM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3272,7 +3290,8 @@
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3311,18 +3330,18 @@
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
       <c r="AF3" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>45</v>
       </c>
       <c r="H4">
-        <f>AG$11*E4</f>
+        <f t="shared" ref="H4:H35" si="0">AG$11*E4</f>
         <v>30.218568413075342</v>
       </c>
       <c r="I4">
@@ -3374,22 +3393,22 @@
       <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6">
+      <c r="T4" s="9"/>
+      <c r="U4" s="7">
         <v>1</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8">
         <v>2</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8">
         <v>3</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
       <c r="AI4" t="s">
         <v>2</v>
       </c>
@@ -3414,15 +3433,15 @@
         <v>250</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="0">1.5 * 3000/100</f>
+        <f t="shared" ref="G5:G68" si="1">1.5 * 3000/100</f>
         <v>45</v>
       </c>
       <c r="H5">
-        <f>AG$11*E5</f>
+        <f t="shared" si="0"/>
         <v>43.55028977178506</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I68" si="1">AG$11*M$4</f>
+        <f t="shared" ref="I5:I68" si="2">AG$11*M$4</f>
         <v>0.88878142391398074</v>
       </c>
       <c r="T5" s="3" t="s">
@@ -3487,15 +3506,15 @@
         <v>300</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <f>AG$11*E6</f>
         <v>66.658606793548557</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T6" s="2">
@@ -3549,15 +3568,15 @@
         <v>350</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H7">
-        <f>AG$11*E7</f>
         <v>85.32301669574214</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T7" s="2">
@@ -3570,7 +3589,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" ref="W7:W21" si="2">$AG$11 * V7</f>
+        <f t="shared" ref="W7:W21" si="3">$AG$11 * V7</f>
         <v>326.18278257643095</v>
       </c>
       <c r="X7" s="2">
@@ -3580,7 +3599,7 @@
         <v>56.9</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z21" si="3">$AG$11 * Y7</f>
+        <f t="shared" ref="Z7:Z21" si="4">$AG$11 * Y7</f>
         <v>505.716630207055</v>
       </c>
       <c r="AA7" s="2">
@@ -3590,7 +3609,7 @@
         <v>104.7</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC21" si="4">$AG$11 * AB7</f>
+        <f t="shared" ref="AC7:AC21" si="5">$AG$11 * AB7</f>
         <v>930.55415083793787</v>
       </c>
       <c r="AK7" t="s">
@@ -3620,15 +3639,15 @@
         <v>400</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <f>AG$11*E8</f>
         <v>124.4293993479573</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T8" s="2">
@@ -3641,7 +3660,7 @@
         <v>31.9</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>283.52127422855983</v>
       </c>
       <c r="X8" s="2">
@@ -3651,7 +3670,7 @@
         <v>49</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>435.50289771785054</v>
       </c>
       <c r="AA8" s="2">
@@ -3661,7 +3680,7 @@
         <v>88.1</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>783.01643446821697</v>
       </c>
       <c r="AK8">
@@ -3671,7 +3690,7 @@
         <v>1402.385</v>
       </c>
       <c r="AM8">
-        <f>AL8*AG$3^AK8</f>
+        <f t="shared" ref="AM8:AM13" si="6">AL8*AG$3^AK8</f>
         <v>1402.385</v>
       </c>
     </row>
@@ -3692,15 +3711,15 @@
         <v>450</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <f>AG$11*E9</f>
         <v>159.98065630451651</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T9" s="2">
@@ -3713,7 +3732,7 @@
         <v>27.4</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243.5261101524307</v>
       </c>
       <c r="X9" s="2">
@@ -3723,7 +3742,7 @@
         <v>43.4</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>385.73113797866762</v>
       </c>
       <c r="AA9" s="2">
@@ -3733,7 +3752,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>689.69438495724899</v>
       </c>
       <c r="AK9">
@@ -3743,7 +3762,7 @@
         <v>5.0388130000000002</v>
       </c>
       <c r="AM9">
-        <f>AL9*AG$3^AK9</f>
+        <f t="shared" si="6"/>
         <v>110.853886</v>
       </c>
     </row>
@@ -3764,19 +3783,16 @@
         <v>500</v>
       </c>
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <f>AG$11*E10</f>
         <v>207.08607177195751</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
       </c>
       <c r="T10" s="2">
         <v>12</v>
@@ -3788,7 +3804,7 @@
         <v>23.6</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209.75241604369947</v>
       </c>
       <c r="X10" s="2">
@@ -3798,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>328.84912684817289</v>
       </c>
       <c r="AA10" s="2">
@@ -3808,7 +3824,7 @@
         <v>63.8</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>567.04254845711966</v>
       </c>
       <c r="AF10" t="s">
@@ -3825,7 +3841,7 @@
         <v>-5.7991359999999999E-2</v>
       </c>
       <c r="AM10">
-        <f>AL10*AG$3^AK10</f>
+        <f t="shared" si="6"/>
         <v>-28.067818240000001</v>
       </c>
     </row>
@@ -3846,23 +3862,19 @@
         <v>450</v>
       </c>
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H11" s="9">
-        <f>AG$11*E11</f>
         <v>303.96324697858142</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <f>H11/10^0.3</f>
-        <v>152.34249887755854</v>
+        <v>23</v>
       </c>
       <c r="T11" s="2">
         <v>11</v>
@@ -3874,7 +3886,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176.86750335888215</v>
       </c>
       <c r="X11" s="2">
@@ -3884,7 +3896,7 @@
         <v>31</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>275.52224141333403</v>
       </c>
       <c r="AA11" s="2">
@@ -3894,7 +3906,7 @@
         <v>54</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>479.9419689135496</v>
       </c>
       <c r="AF11">
@@ -3913,7 +3925,7 @@
         <v>3.2871560000000003E-4</v>
       </c>
       <c r="AM11">
-        <f>AL11*AG$3^AK11</f>
+        <f t="shared" si="6"/>
         <v>3.5001637088000002</v>
       </c>
     </row>
@@ -3934,16 +3946,26 @@
         <v>400</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <f>AG$11*E12</f>
         <v>242.63732872851674</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <f>H11/10^0.3</f>
+        <v>152.34249887755854</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
       </c>
       <c r="T12" s="2">
         <v>10</v>
@@ -3955,7 +3977,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154.64796776103265</v>
       </c>
       <c r="X12" s="2">
@@ -3965,7 +3987,7 @@
         <v>26.5</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235.5270773372049</v>
       </c>
       <c r="AA12" s="2">
@@ -3975,7 +3997,7 @@
         <v>45.7</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>406.17311072868921</v>
       </c>
       <c r="AK12">
@@ -3986,7 +4008,7 @@
         <v>-1.3988449999999998E-6</v>
       </c>
       <c r="AM12">
-        <f>AL12*AG$3^AK12</f>
+        <f t="shared" si="6"/>
         <v>-0.32768783431999998</v>
       </c>
     </row>
@@ -4007,16 +4029,26 @@
         <v>350</v>
       </c>
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <f>AG$11*E13</f>
         <v>181.31141047845205</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <f>H11/PI()/(38/2)^2</f>
+        <v>0.26801802368367789</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
       </c>
       <c r="T13" s="2">
         <v>9</v>
@@ -4028,7 +4060,7 @@
         <v>14.1</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125.31818077187128</v>
       </c>
       <c r="X13" s="2">
@@ -4038,7 +4070,7 @@
         <v>22.1</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196.42069468498974</v>
       </c>
       <c r="AA13" s="2">
@@ -4048,7 +4080,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>322.62765688077496</v>
       </c>
       <c r="AK13">
@@ -4059,7 +4091,7 @@
         <v>2.7878599999999999E-9</v>
       </c>
       <c r="AM13">
-        <f>AL13*AG$3^AK13</f>
+        <f t="shared" si="6"/>
         <v>1.4367604507519999E-2</v>
       </c>
     </row>
@@ -4080,16 +4112,23 @@
         <v>300</v>
       </c>
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <f>AG$11*E14</f>
         <v>94.210830934881955</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <f>I11/PI()/(38/2)^2</f>
+        <v>7.8367843182361951E-4</v>
       </c>
       <c r="T14" s="2">
         <v>8</v>
@@ -4101,7 +4140,7 @@
         <v>11.6</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103.09864517402175</v>
       </c>
       <c r="X14" s="2">
@@ -4111,7 +4150,7 @@
         <v>17.7</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.31431203277458</v>
       </c>
       <c r="AA14" s="2">
@@ -4121,7 +4160,7 @@
         <v>27.9</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>247.9700172720006</v>
       </c>
     </row>
@@ -4142,15 +4181,15 @@
         <v>350</v>
       </c>
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <f>AG$11*E15</f>
         <v>79.990328152258257</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T15" s="2">
@@ -4163,7 +4202,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.767891000086223</v>
       </c>
       <c r="X15" s="2">
@@ -4173,7 +4212,7 @@
         <v>14.2</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126.20696219578525</v>
       </c>
       <c r="AA15" s="2">
@@ -4183,7 +4222,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>159.09187488060255</v>
       </c>
     </row>
@@ -4204,15 +4243,15 @@
         <v>400</v>
       </c>
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <f>AG$11*E16</f>
         <v>101.3210823261938</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T16" s="2">
@@ -4225,7 +4264,7 @@
         <v>7.2</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63.992262521806616</v>
       </c>
       <c r="X16" s="2">
@@ -4235,7 +4274,7 @@
         <v>10.1</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.766923815312055</v>
       </c>
       <c r="AA16" s="2">
@@ -4245,7 +4284,7 @@
         <v>15.9</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141.31624640232295</v>
       </c>
     </row>
@@ -4266,15 +4305,15 @@
         <v>450</v>
       </c>
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <f>AG$11*E17</f>
         <v>110.20889656533362</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T17" s="2">
@@ -4287,7 +4326,7 @@
         <v>5.4</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.99419689135496</v>
       </c>
       <c r="X17" s="2">
@@ -4297,7 +4336,7 @@
         <v>7.3</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64.881043945720592</v>
       </c>
       <c r="AA17" s="2">
@@ -4307,7 +4346,7 @@
         <v>11.2</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.543519478365837</v>
       </c>
     </row>
@@ -4328,15 +4367,15 @@
         <v>500</v>
       </c>
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <f>AG$11*E18</f>
         <v>144.87137209797885</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T18" s="2">
@@ -4349,7 +4388,7 @@
         <v>4.2</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.328819804387194</v>
       </c>
       <c r="X18" s="2">
@@ -4359,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.439071195699036</v>
       </c>
       <c r="AA18" s="2">
@@ -4369,7 +4408,7 @@
         <v>7.6</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.547388217462526</v>
       </c>
     </row>
@@ -4390,15 +4429,15 @@
         <v>550</v>
       </c>
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <f>AG$11*E19</f>
         <v>175.08994051105421</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T19" s="2">
@@ -4411,7 +4450,7 @@
         <v>3.2</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.441005565247384</v>
       </c>
       <c r="X19" s="2">
@@ -4421,7 +4460,7 @@
         <v>3.6</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.996131260903308</v>
       </c>
       <c r="AA19" s="2">
@@ -4431,7 +4470,7 @@
         <v>5</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44.439071195699036</v>
       </c>
     </row>
@@ -4452,15 +4491,15 @@
         <v>600</v>
       </c>
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H20">
-        <f>AG$11*E20</f>
         <v>207.08607177195751</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T20" s="2">
@@ -4473,7 +4512,7 @@
         <v>2.6</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.108317021763501</v>
       </c>
       <c r="X20" s="2">
@@ -4483,7 +4522,7 @@
         <v>2.4</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.330754173935535</v>
       </c>
       <c r="AA20" s="2">
@@ -4514,15 +4553,15 @@
         <v>650</v>
       </c>
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H21">
-        <f>AG$11*E21</f>
         <v>247.08123584808664</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="T21" s="5">
@@ -4535,7 +4574,7 @@
         <v>2.4</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.330754173935535</v>
       </c>
       <c r="X21" s="5">
@@ -4545,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.775628478279614</v>
       </c>
       <c r="AA21" s="5">
@@ -4555,7 +4594,7 @@
         <v>1.7</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.109284206537671</v>
       </c>
     </row>
@@ -4576,15 +4615,15 @@
         <v>700</v>
       </c>
       <c r="G22">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H22">
-        <f>AG$11*E22</f>
         <v>270.1895528698501</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4605,15 +4644,15 @@
         <v>750</v>
       </c>
       <c r="G23">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H23">
-        <f>AG$11*E23</f>
         <v>286.18761850030182</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4634,15 +4673,15 @@
         <v>800</v>
       </c>
       <c r="G24">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H24">
-        <f>AG$11*E24</f>
         <v>302.18568413075343</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4663,15 +4702,15 @@
         <v>850</v>
       </c>
       <c r="G25">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H25">
-        <f>AG$11*E25</f>
         <v>318.18374976120509</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4692,15 +4731,15 @@
         <v>900</v>
       </c>
       <c r="G26">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H26">
-        <f>AG$11*E26</f>
         <v>343.06962963079656</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4721,15 +4760,15 @@
         <v>950</v>
       </c>
       <c r="G27">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H27">
-        <f>AG$11*E27</f>
         <v>359.95647668516222</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4750,15 +4789,15 @@
         <v>1000</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H28">
-        <f>AG$11*E28</f>
         <v>392.84138936997948</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4779,15 +4818,15 @@
         <v>950</v>
       </c>
       <c r="G29">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H29" s="9">
-        <f>AG$11*E29</f>
         <v>469.27659182658181</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="K29" t="s">
@@ -4811,15 +4850,15 @@
         <v>900</v>
       </c>
       <c r="G30">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H30">
-        <f>AG$11*E30</f>
         <v>460.38877758744201</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="K30" t="s">
@@ -4829,6 +4868,9 @@
         <f>H29/10^0.3</f>
         <v>235.19543686359913</v>
       </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B31">
@@ -4847,16 +4889,26 @@
         <v>850</v>
       </c>
       <c r="G31">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H31">
-        <f>AG$11*E31</f>
         <v>439.05802341350648</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <f>H29/PI()/(38/2)^2</f>
+        <v>0.41378221200287102</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.35">
@@ -4876,15 +4928,15 @@
         <v>800</v>
       </c>
       <c r="G32">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H32">
-        <f>AG$11*E32</f>
         <v>391.95260794606548</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4905,15 +4957,15 @@
         <v>750</v>
       </c>
       <c r="G33">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H33">
-        <f>AG$11*E33</f>
         <v>359.95647668516222</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4934,15 +4986,15 @@
         <v>700</v>
       </c>
       <c r="G34">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H34">
-        <f>AG$11*E34</f>
         <v>324.40521972860296</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4963,15 +5015,15 @@
         <v>650</v>
       </c>
       <c r="G35">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H35">
-        <f>AG$11*E35</f>
         <v>297.74177701118356</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -4992,15 +5044,15 @@
         <v>600</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H36">
-        <f>AG$11*E36</f>
+        <f t="shared" ref="H36:H67" si="7">AG$11*E36</f>
         <v>266.63442717419423</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5021,15 +5073,15 @@
         <v>550</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H37">
-        <f>AG$11*E37</f>
+        <f t="shared" si="7"/>
         <v>244.4148915763447</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5050,15 +5102,15 @@
         <v>500</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H38">
-        <f>AG$11*E38</f>
+        <f t="shared" si="7"/>
         <v>221.30657455458118</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5079,15 +5131,15 @@
         <v>450</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H39">
-        <f>AG$11*E39</f>
+        <f t="shared" si="7"/>
         <v>207.08607177195751</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5108,15 +5160,15 @@
         <v>400</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H40">
-        <f>AG$11*E40</f>
+        <f t="shared" si="7"/>
         <v>181.31141047845205</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5137,15 +5189,15 @@
         <v>350</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H41">
-        <f>AG$11*E41</f>
+        <f t="shared" si="7"/>
         <v>168.86847054365634</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5166,15 +5218,15 @@
         <v>300</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H42">
-        <f>AG$11*E42</f>
+        <f t="shared" si="7"/>
         <v>135.09477643492505</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5195,15 +5247,15 @@
         <v>250</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H43">
-        <f>AG$11*E43</f>
+        <f t="shared" si="7"/>
         <v>106.65377086967769</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5224,15 +5276,15 @@
         <v>200</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H44">
-        <f>AG$11*E44</f>
+        <f t="shared" si="7"/>
         <v>46.216634043527002</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5253,15 +5305,15 @@
         <v>250</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H45">
-        <f>AG$11*E45</f>
+        <f t="shared" si="7"/>
         <v>41.772726923957094</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5282,15 +5334,15 @@
         <v>300</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H46">
-        <f>AG$11*E46</f>
+        <f t="shared" si="7"/>
         <v>71.99129533703244</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5311,15 +5363,15 @@
         <v>350</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H47">
-        <f>AG$11*E47</f>
+        <f t="shared" si="7"/>
         <v>95.099612358795937</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5340,15 +5392,15 @@
         <v>400</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H48">
-        <f>AG$11*E48</f>
+        <f t="shared" si="7"/>
         <v>122.65183650012935</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5369,15 +5421,15 @@
         <v>450</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H49">
-        <f>AG$11*E49</f>
+        <f t="shared" si="7"/>
         <v>144.87137209797885</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5398,15 +5450,15 @@
         <v>500</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H50">
-        <f>AG$11*E50</f>
+        <f t="shared" si="7"/>
         <v>170.64603339148428</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5427,15 +5479,15 @@
         <v>550</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H51">
-        <f>AG$11*E51</f>
+        <f t="shared" si="7"/>
         <v>204.41972750021557</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5456,15 +5508,15 @@
         <v>600</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H52">
-        <f>AG$11*E52</f>
+        <f t="shared" si="7"/>
         <v>231.97195164154897</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5485,15 +5537,15 @@
         <v>650</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H53">
-        <f>AG$11*E53</f>
+        <f t="shared" si="7"/>
         <v>255.96905008722646</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5514,15 +5566,15 @@
         <v>700</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H54">
-        <f>AG$11*E54</f>
+        <f t="shared" si="7"/>
         <v>293.29786989161363</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5543,15 +5595,15 @@
         <v>750</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H55">
-        <f>AG$11*E55</f>
+        <f t="shared" si="7"/>
         <v>335.07059681557075</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5572,15 +5624,15 @@
         <v>800</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H56">
-        <f>AG$11*E56</f>
+        <f t="shared" si="7"/>
         <v>487.05222030486141</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5601,15 +5653,15 @@
         <v>850</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H57">
-        <f>AG$11*E57</f>
+        <f t="shared" si="7"/>
         <v>513.71566302228086</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5630,15 +5682,15 @@
         <v>900</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H58">
-        <f>AG$11*E58</f>
+        <f t="shared" si="7"/>
         <v>575.93036269625952</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5659,15 +5711,15 @@
         <v>950</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H59">
-        <f>AG$11*E59</f>
+        <f t="shared" si="7"/>
         <v>628.36846670718444</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5688,15 +5740,15 @@
         <v>900</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H60">
-        <f>AG$11*E60</f>
+        <f t="shared" si="7"/>
         <v>784.79399731604497</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5717,15 +5769,15 @@
         <v>950</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H61">
-        <f>AG$11*E61</f>
+        <f t="shared" si="7"/>
         <v>762.57446171819538</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5746,15 +5798,15 @@
         <v>900</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H62">
-        <f>AG$11*E62</f>
+        <f t="shared" si="7"/>
         <v>787.46034158778684</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5775,15 +5827,15 @@
         <v>850</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H63">
-        <f>AG$11*E63</f>
+        <f t="shared" si="7"/>
         <v>813.2350028812923</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
     </row>
@@ -5804,19 +5856,19 @@
         <v>800</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H64">
-        <f>AG$11*E64</f>
+        <f t="shared" si="7"/>
         <v>826.56672424000203</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>62</v>
       </c>
@@ -5833,22 +5885,22 @@
         <v>750</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H65" s="9">
-        <f>AG$11*E65</f>
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" si="7"/>
         <v>831.8994127834859</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="K65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>63</v>
       </c>
@@ -5865,15 +5917,15 @@
         <v>700</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H66">
-        <f>AG$11*E66</f>
+        <f t="shared" si="7"/>
         <v>817.67891000086229</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
       <c r="K66" t="s">
@@ -5883,8 +5935,11 @@
         <f>H65/10^0.3</f>
         <v>416.93736534910755</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>64</v>
       </c>
@@ -5901,19 +5956,29 @@
         <v>650</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H67">
-        <f>AG$11*E67</f>
+        <f t="shared" si="7"/>
         <v>789.23790443561484</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67">
+        <f>H65/PI()/(38/2)^2</f>
+        <v>0.73352301218690785</v>
+      </c>
+      <c r="M67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>65</v>
       </c>
@@ -5930,19 +5995,19 @@
         <v>600</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H68">
-        <f>AG$11*E68</f>
+        <f t="shared" ref="H68:H78" si="8">AG$11*E68</f>
         <v>751.90908463122764</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>66</v>
       </c>
@@ -5959,19 +6024,19 @@
         <v>550</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G78" si="5">1.5 * 3000/100</f>
+        <f t="shared" ref="G69:G78" si="9">1.5 * 3000/100</f>
         <v>45</v>
       </c>
       <c r="H69">
-        <f>AG$11*E69</f>
+        <f t="shared" si="8"/>
         <v>717.24660909858244</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I78" si="6">AG$11*M$4</f>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I69:I78" si="10">AG$11*M$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>67</v>
       </c>
@@ -5988,19 +6053,19 @@
         <v>500</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H70">
-        <f>AG$11*E70</f>
+        <f t="shared" si="8"/>
         <v>671.91875647896939</v>
       </c>
       <c r="I70">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>68</v>
       </c>
@@ -6017,19 +6082,19 @@
         <v>450</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H71">
-        <f>AG$11*E71</f>
+        <f t="shared" si="8"/>
         <v>637.25628094632418</v>
       </c>
       <c r="I71">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>69</v>
       </c>
@@ -6046,19 +6111,19 @@
         <v>400</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H72">
-        <f>AG$11*E72</f>
+        <f t="shared" si="8"/>
         <v>593.70599117453912</v>
       </c>
       <c r="I72">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>70</v>
       </c>
@@ -6075,19 +6140,19 @@
         <v>350</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H73">
-        <f>AG$11*E73</f>
+        <f t="shared" si="8"/>
         <v>539.49032431578632</v>
       </c>
       <c r="I73">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>71</v>
       </c>
@@ -6104,19 +6169,19 @@
         <v>300</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H74">
-        <f>AG$11*E74</f>
+        <f t="shared" si="8"/>
         <v>496.8288159679152</v>
       </c>
       <c r="I74">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>72</v>
       </c>
@@ -6133,19 +6198,19 @@
         <v>250</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H75">
-        <f>AG$11*E75</f>
+        <f t="shared" si="8"/>
         <v>439.94680483742047</v>
       </c>
       <c r="I75">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>73</v>
       </c>
@@ -6162,19 +6227,19 @@
         <v>200</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H76">
-        <f>AG$11*E76</f>
+        <f t="shared" si="8"/>
         <v>351.06866244602236</v>
       </c>
       <c r="I76">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>74</v>
       </c>
@@ -6191,19 +6256,19 @@
         <v>150</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H77">
-        <f>AG$11*E77</f>
+        <f t="shared" si="8"/>
         <v>291.52030704378564</v>
       </c>
       <c r="I77">
-        <f t="shared" si="6"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="10"/>
+        <v>0.88878142391398074</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>75</v>
       </c>
@@ -6220,15 +6285,15 @@
         <v>100</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H78">
-        <f>AG$11*E78</f>
+        <f t="shared" si="8"/>
         <v>177.75628478279614</v>
       </c>
       <c r="I78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.88878142391398074</v>
       </c>
     </row>

--- a/ultrasy_lab/cw3/lab3.xlsx
+++ b/ultrasy_lab/cw3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moje\studia\sem5\ultrasy_lab\cw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308BC2CD-2FD1-40A0-9EFC-7C75FAE13449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4D753-4CCA-4C88-96EE-F4CD3FC18909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
   </bookViews>

--- a/ultrasy_lab/cw3/lab3.xlsx
+++ b/ultrasy_lab/cw3/lab3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moje\studia\sem5\ultrasy_lab\cw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studia\sem5\ultrasy_lab\cw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4D753-4CCA-4C88-96EE-F4CD3FC18909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC749F8-3BF2-4C99-816F-BFEF87A3FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE645AF-2C36-4689-B21C-DD9963AA49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>r</t>
   </si>
@@ -122,9 +122,6 @@
     <t>natezenie</t>
   </si>
   <si>
-    <t>Hz</t>
-  </si>
-  <si>
     <t>3db spadek</t>
   </si>
   <si>
@@ -136,11 +133,65 @@
   <si>
     <t>$\Delta I $[mW/mm$^2$]</t>
   </si>
+  <si>
+    <t>roznice czestotliwosci</t>
+  </si>
+  <si>
+    <t>$\Delta f$ [H]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>B [Hz]</t>
+  </si>
+  <si>
+    <t>$\Delta B$ [Hz]</t>
+  </si>
+  <si>
+    <t>$\Delta Q$</t>
+  </si>
+  <si>
+    <t>Specyfikacje rezonansow</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>I [mW/mm^2]</t>
+  </si>
+  <si>
+    <t>blad</t>
+  </si>
+  <si>
+    <t>wartosc</t>
+  </si>
+  <si>
+    <t>B[Hz]</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>blad \%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -252,9 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,7 +348,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,7 +385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -903,7 +973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1091777791"/>
@@ -965,7 +1035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1091787391"/>
@@ -1013,7 +1083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1027,7 +1097,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1064,7 +1134,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1652,7 +1722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1912997503"/>
@@ -1714,7 +1784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1912996543"/>
@@ -1762,7 +1832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2889,13 +2959,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>528420</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>73480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>218276</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>62464</xdr:rowOff>
@@ -2925,16 +2995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>106815</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152576</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>531777</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>402364</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>141560</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>211864</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2963,9 +3033,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3003,7 +3073,7 @@
         <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
@@ -3109,7 +3179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3279,24 +3349,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FACB1-7A11-4243-9F19-93C43F882BE4}">
-  <dimension ref="B3:AM78"/>
+  <dimension ref="B3:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3321,20 +3397,28 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7" t="s">
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
@@ -3342,20 +3426,21 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-      <c r="AF3" t="s">
+      <c r="AD3" s="8"/>
+      <c r="AG3" t="s">
         <v>7</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>22</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>1</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3376,47 +3461,54 @@
         <v>45</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H35" si="0">AG$11*E4</f>
+        <f t="shared" ref="H4:H35" si="0">AH$11*E4</f>
         <v>30.218568413075342</v>
       </c>
       <c r="I4">
-        <f>AG$11*M$4</f>
-        <v>0.88878142391398074</v>
-      </c>
-      <c r="K4">
+        <f>AH$11*N$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f xml:space="preserve"> 1.5 * 20 /100</f>
         <v>0.3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.1</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="7">
+      <c r="O4">
+        <f>1.5 * 3000/100</f>
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7">
         <v>1</v>
       </c>
-      <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8">
         <v>2</v>
       </c>
-      <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="8">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8">
         <v>3</v>
       </c>
-      <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AI4" t="s">
+      <c r="AD4" s="8"/>
+      <c r="AJ4" t="s">
         <v>2</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>340000</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3441,55 +3533,59 @@
         <v>43.55028977178506</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I68" si="2">AG$11*M$4</f>
-        <v>0.88878142391398074</v>
-      </c>
-      <c r="T5" s="3" t="s">
+        <f t="shared" ref="I5:I68" si="2">AH$11*N$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K5" s="4">
+        <f>C5-C4</f>
+        <v>5440</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <f>AJ3^2*AJ4/(4*AJ5)</f>
+      <c r="AH5">
+        <f>AK3^2*AK4/(4*AK5)</f>
         <v>8.2466723274796677E-2</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>3</v>
       </c>
-      <c r="AJ5">
-        <f>SUM(AM8:AM13)</f>
+      <c r="AK5">
+        <f>SUM(AN8:AN13)</f>
         <v>1488.3579112389878</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3517,41 +3613,45 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T6" s="2">
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:K69" si="3">C6-C5</f>
+        <v>2781</v>
+      </c>
+      <c r="U6" s="2">
         <v>16</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>510</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <v>39.700000000000003</v>
       </c>
-      <c r="W6" s="2">
-        <f>$AG$11 * V6</f>
+      <c r="X6" s="2">
+        <f>$AH$11 * W6</f>
         <v>352.84622529385035</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>1160</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>65</v>
       </c>
-      <c r="Z6" s="2">
-        <f>$AG$11 * Y6</f>
+      <c r="AA6" s="2">
+        <f>$AH$11 * Z6</f>
         <v>577.70792554408752</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>1010</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AC6" s="2">
         <v>119.2</v>
       </c>
-      <c r="AC6" s="2">
-        <f>$AG$11 * AB6</f>
+      <c r="AD6" s="2">
+        <f>$AH$11 * AC6</f>
         <v>1059.4274573054649</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3579,50 +3679,54 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T7" s="2">
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>2799</v>
+      </c>
+      <c r="U7" s="2">
         <v>15</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>480</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="W7" s="2">
-        <f t="shared" ref="W7:W21" si="3">$AG$11 * V7</f>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7:X21" si="4">$AH$11 * W7</f>
         <v>326.18278257643095</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>1000</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>56.9</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z21" si="4">$AG$11 * Y7</f>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AA21" si="5">$AH$11 * Z7</f>
         <v>505.716630207055</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>880</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>104.7</v>
       </c>
-      <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC21" si="5">$AG$11 * AB7</f>
+      <c r="AD7" s="2">
+        <f t="shared" ref="AD7:AD21" si="6">$AH$11 * AC7</f>
         <v>930.55415083793787</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>5</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3650,51 +3754,55 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T8" s="2">
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>1607</v>
+      </c>
+      <c r="U8" s="2">
         <v>14</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>400</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>31.9</v>
       </c>
-      <c r="W8" s="2">
-        <f t="shared" si="3"/>
+      <c r="X8" s="2">
+        <f t="shared" si="4"/>
         <v>283.52127422855983</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>720</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>49</v>
       </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA8" s="2">
+        <f t="shared" si="5"/>
         <v>435.50289771785054</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AB8" s="2">
         <v>700</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AC8" s="2">
         <v>88.1</v>
       </c>
-      <c r="AC8" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD8" s="2">
+        <f t="shared" si="6"/>
         <v>783.01643446821697</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1402.385</v>
       </c>
-      <c r="AM8">
-        <f t="shared" ref="AM8:AM13" si="6">AL8*AG$3^AK8</f>
+      <c r="AN8">
+        <f t="shared" ref="AN8:AN13" si="7">AM8*AH$3^AL8</f>
         <v>1402.385</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3714,7 +3822,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>159.98065630451651</v>
       </c>
@@ -3722,51 +3830,55 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T9" s="2">
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>902</v>
+      </c>
+      <c r="U9" s="2">
         <v>13</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>310</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>27.4</v>
       </c>
-      <c r="W9" s="2">
-        <f t="shared" si="3"/>
+      <c r="X9" s="2">
+        <f t="shared" si="4"/>
         <v>243.5261101524307</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>710</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>43.4</v>
       </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA9" s="2">
+        <f t="shared" si="5"/>
         <v>385.73113797866762</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>600</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <v>77.599999999999994</v>
       </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD9" s="2">
+        <f t="shared" si="6"/>
         <v>689.69438495724899</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>5.0388130000000002</v>
       </c>
-      <c r="AM9">
-        <f t="shared" si="6"/>
+      <c r="AN9">
+        <f t="shared" si="7"/>
         <v>110.853886</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3794,58 +3906,62 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T10" s="2">
+      <c r="K10" s="4">
+        <f t="shared" si="3"/>
+        <v>1204</v>
+      </c>
+      <c r="U10" s="2">
         <v>12</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>250</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>23.6</v>
       </c>
-      <c r="W10" s="2">
-        <f t="shared" si="3"/>
+      <c r="X10" s="2">
+        <f t="shared" si="4"/>
         <v>209.75241604369947</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>590</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>37</v>
       </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA10" s="2">
+        <f t="shared" si="5"/>
         <v>328.84912684817289</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AB10" s="2">
         <v>490</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AC10" s="2">
         <v>63.8</v>
       </c>
-      <c r="AC10" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD10" s="2">
+        <f t="shared" si="6"/>
         <v>567.04254845711966</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>9</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f>-5.799136*10^-2</f>
         <v>-5.7991359999999999E-2</v>
       </c>
-      <c r="AM10">
-        <f t="shared" si="6"/>
+      <c r="AN10">
+        <f t="shared" si="7"/>
         <v>-28.067818240000001</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3873,63 +3989,67 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="4">
+        <f t="shared" si="3"/>
+        <v>2618</v>
+      </c>
+      <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>11</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>200</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="W11" s="2">
-        <f t="shared" si="3"/>
+      <c r="X11" s="2">
+        <f t="shared" si="4"/>
         <v>176.86750335888215</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>480</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <v>31</v>
       </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA11" s="2">
+        <f t="shared" si="5"/>
         <v>275.52224141333403</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <v>400</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AC11" s="2">
         <v>54</v>
       </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD11" s="2">
+        <f t="shared" si="6"/>
         <v>479.9419689135496</v>
       </c>
-      <c r="AF11">
-        <f>9.81*AJ5/2/COS(RADIANS((25)))^2</f>
+      <c r="AG11">
+        <f>9.81*AK5/2/COS(RADIANS((25)))^2</f>
         <v>8887.8142391398069</v>
       </c>
-      <c r="AG11">
-        <f>AF11/1000</f>
+      <c r="AH11">
+        <f>AG11/1000</f>
         <v>8.8878142391398072</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f>3.287156*10^-4</f>
         <v>3.2871560000000003E-4</v>
       </c>
-      <c r="AM11">
-        <f t="shared" si="6"/>
+      <c r="AN11">
+        <f t="shared" si="7"/>
         <v>3.5001637088000002</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3957,62 +4077,66 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12">
         <f>H11/10^0.3</f>
         <v>152.34249887755854</v>
       </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="2">
         <v>10</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>150</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="W12" s="2">
-        <f t="shared" si="3"/>
+      <c r="X12" s="2">
+        <f t="shared" si="4"/>
         <v>154.64796776103265</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>390</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>26.5</v>
       </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA12" s="2">
+        <f t="shared" si="5"/>
         <v>235.5270773372049</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>310</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AC12" s="2">
         <v>45.7</v>
       </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD12" s="2">
+        <f t="shared" si="6"/>
         <v>406.17311072868921</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>4</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f>-1.398845*10^-6</f>
         <v>-1.3988449999999998E-6</v>
       </c>
-      <c r="AM12">
-        <f t="shared" si="6"/>
+      <c r="AN12">
+        <f t="shared" si="7"/>
         <v>-0.32768783431999998</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -4032,7 +4156,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>181.31141047845205</v>
       </c>
@@ -4040,62 +4164,66 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="4">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13">
         <f>H11/PI()/(38/2)^2</f>
         <v>0.26801802368367789</v>
       </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="P13">
+        <v>500</v>
+      </c>
+      <c r="U13" s="2">
         <v>9</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <v>100</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>14.1</v>
       </c>
-      <c r="W13" s="2">
-        <f t="shared" si="3"/>
+      <c r="X13" s="2">
+        <f t="shared" si="4"/>
         <v>125.31818077187128</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Y13" s="2">
         <v>300</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Z13" s="2">
         <v>22.1</v>
       </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA13" s="2">
+        <f t="shared" si="5"/>
         <v>196.42069468498974</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <v>230</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AC13" s="2">
         <v>36.299999999999997</v>
       </c>
-      <c r="AC13" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD13" s="2">
+        <f t="shared" si="6"/>
         <v>322.62765688077496</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>5</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f>2.78786*10^-9</f>
         <v>2.7878599999999999E-9</v>
       </c>
-      <c r="AM13">
-        <f t="shared" si="6"/>
+      <c r="AN13">
+        <f t="shared" si="7"/>
         <v>1.4367604507519999E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -4123,48 +4251,52 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="4">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
         <f>I11/PI()/(38/2)^2</f>
         <v>7.8367843182361951E-4</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>8</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <v>80</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>11.6</v>
       </c>
-      <c r="W14" s="2">
-        <f t="shared" si="3"/>
+      <c r="X14" s="2">
+        <f t="shared" si="4"/>
         <v>103.09864517402175</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <v>200</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Z14" s="2">
         <v>17.7</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA14" s="2">
+        <f t="shared" si="5"/>
         <v>157.31431203277458</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <v>180</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AC14" s="2">
         <v>27.9</v>
       </c>
-      <c r="AC14" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD14" s="2">
+        <f t="shared" si="6"/>
         <v>247.9700172720006</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -4192,41 +4324,52 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T15" s="2">
+      <c r="K15" s="4">
+        <f t="shared" si="3"/>
+        <v>8547</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="4">
+        <f>C13-C9</f>
+        <v>4680</v>
+      </c>
+      <c r="U15" s="2">
         <v>7</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <v>50</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="W15" s="2">
-        <f t="shared" si="3"/>
+      <c r="X15" s="2">
+        <f t="shared" si="4"/>
         <v>81.767891000086223</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <v>150</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <v>14.2</v>
       </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA15" s="2">
+        <f t="shared" si="5"/>
         <v>126.20696219578525</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AB15" s="2">
         <v>100</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AC15" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="AC15" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD15" s="2">
+        <f t="shared" si="6"/>
         <v>159.09187488060255</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -4254,41 +4397,52 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T16" s="2">
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>3074</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <f>L$4*2</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
         <v>6</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <v>10</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <v>7.2</v>
       </c>
-      <c r="W16" s="2">
-        <f t="shared" si="3"/>
+      <c r="X16" s="2">
+        <f t="shared" si="4"/>
         <v>63.992262521806616</v>
       </c>
-      <c r="X16" s="2">
+      <c r="Y16" s="2">
         <v>80</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <v>10.1</v>
       </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA16" s="2">
+        <f t="shared" si="5"/>
         <v>89.766923815312055</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <v>60</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AC16" s="2">
         <v>15.9</v>
       </c>
-      <c r="AC16" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD16" s="2">
+        <f t="shared" si="6"/>
         <v>141.31624640232295</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -4316,41 +4470,52 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T17" s="2">
+      <c r="K17" s="4">
+        <f t="shared" si="3"/>
+        <v>1338</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <f>C11/M15</f>
+        <v>67.411111111111111</v>
+      </c>
+      <c r="U17" s="2">
         <v>5</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <v>0</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <v>5.4</v>
       </c>
-      <c r="W17" s="2">
-        <f t="shared" si="3"/>
+      <c r="X17" s="2">
+        <f t="shared" si="4"/>
         <v>47.99419689135496</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Y17" s="2">
         <v>20</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Z17" s="2">
         <v>7.3</v>
       </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA17" s="2">
+        <f t="shared" si="5"/>
         <v>64.881043945720592</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <v>10</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AC17" s="2">
         <v>11.2</v>
       </c>
-      <c r="AC17" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD17" s="2">
+        <f t="shared" si="6"/>
         <v>99.543519478365837</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -4378,41 +4543,52 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T18" s="2">
+      <c r="K18" s="4">
+        <f t="shared" si="3"/>
+        <v>1519</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <f>(M16*C11/M15^2)^2 + 1/M15*L$4</f>
+        <v>1.0435857077278413E-3</v>
+      </c>
+      <c r="U18" s="2">
         <v>4</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <v>0</v>
       </c>
-      <c r="V18" s="2">
+      <c r="W18" s="2">
         <v>4.2</v>
       </c>
-      <c r="W18" s="2">
-        <f t="shared" si="3"/>
+      <c r="X18" s="2">
+        <f t="shared" si="4"/>
         <v>37.328819804387194</v>
       </c>
-      <c r="X18" s="2">
+      <c r="Y18" s="2">
         <v>0</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Z18" s="2">
         <v>5</v>
       </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA18" s="2">
+        <f t="shared" si="5"/>
         <v>44.439071195699036</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AB18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AC18" s="2">
         <v>7.6</v>
       </c>
-      <c r="AC18" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD18" s="2">
+        <f t="shared" si="6"/>
         <v>67.547388217462526</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -4440,41 +4616,45 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T19" s="2">
+      <c r="K19" s="4">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="U19" s="2">
         <v>3</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="W19" s="2">
         <v>3.2</v>
       </c>
-      <c r="W19" s="2">
-        <f t="shared" si="3"/>
+      <c r="X19" s="2">
+        <f t="shared" si="4"/>
         <v>28.441005565247384</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <v>0</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Z19" s="2">
         <v>3.6</v>
       </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA19" s="2">
+        <f t="shared" si="5"/>
         <v>31.996131260903308</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AC19" s="2">
         <v>5</v>
       </c>
-      <c r="AC19" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD19" s="2">
+        <f t="shared" si="6"/>
         <v>44.439071195699036</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -4502,103 +4682,111 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="T20" s="2">
+      <c r="K20" s="4">
+        <f t="shared" si="3"/>
+        <v>670</v>
+      </c>
+      <c r="U20" s="2">
         <v>2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <v>2.6</v>
       </c>
-      <c r="W20" s="2">
+      <c r="X20" s="2">
+        <f t="shared" si="4"/>
+        <v>23.108317021763501</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="5"/>
+        <v>21.330754173935535</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AD20" s="2">
+        <f>$AH$11 * AC20</f>
+        <v>23.99709844567748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>334461</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>27.8</v>
+      </c>
+      <c r="F21">
+        <v>650</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>247.08123584808664</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="3"/>
-        <v>23.108317021763501</v>
-      </c>
-      <c r="X20" s="2">
+        <v>1187</v>
+      </c>
+      <c r="U21" s="5">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5">
         <v>0</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="W21" s="5">
         <v>2.4</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="X21" s="2">
         <f t="shared" si="4"/>
         <v>21.330754173935535</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="Y21" s="5">
         <v>0</v>
       </c>
-      <c r="AB20" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="AC20" s="2">
-        <f>$AG$11 * AB20</f>
-        <v>23.99709844567748</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4">
-        <v>334461</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>27.8</v>
-      </c>
-      <c r="F21">
-        <v>650</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>247.08123584808664</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0.88878142391398074</v>
-      </c>
-      <c r="T21" s="5">
-        <v>1</v>
-      </c>
-      <c r="U21" s="5">
+      <c r="Z21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="5"/>
+        <v>17.775628478279614</v>
+      </c>
+      <c r="AB21" s="5">
         <v>0</v>
       </c>
-      <c r="V21" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="3"/>
-        <v>21.330754173935535</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="4"/>
-        <v>17.775628478279614</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5">
+      <c r="AC21" s="5">
         <v>1.7</v>
       </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="5"/>
+      <c r="AD21" s="2">
+        <f t="shared" si="6"/>
         <v>15.109284206537671</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -4626,8 +4814,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K22" s="4">
+        <f t="shared" si="3"/>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -4655,8 +4847,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K23" s="4">
+        <f t="shared" si="3"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -4684,8 +4880,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K24" s="4">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -4713,8 +4913,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K25" s="4">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -4742,8 +4946,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K26" s="4">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -4771,8 +4979,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K27" s="4">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -4800,8 +5012,12 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="K28" s="4">
+        <f t="shared" si="3"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -4829,11 +5045,15 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="4">
+        <f t="shared" si="3"/>
+        <v>2194</v>
+      </c>
+      <c r="L29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -4861,18 +5081,22 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="4">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+      <c r="L30" t="s">
         <v>25</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f>H29/10^0.3</f>
         <v>235.19543686359913</v>
       </c>
-      <c r="M30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -4900,18 +5124,25 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="4">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="L31" t="s">
         <v>27</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f>H29/PI()/(38/2)^2</f>
         <v>0.41378221200287102</v>
       </c>
-      <c r="M31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -4939,8 +5170,19 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K32" s="4">
+        <f t="shared" si="3"/>
+        <v>1117</v>
+      </c>
+      <c r="L32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <f>I29/PI()/(38/2)^2</f>
+        <v>7.8367843182361951E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -4968,8 +5210,19 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K33" s="4">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="4">
+        <f>C37-C21</f>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
@@ -4997,8 +5250,19 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K34" s="4">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <f>L$4*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -5026,8 +5290,19 @@
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K35" s="4">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <f>C29/M33</f>
+        <v>34.657838443516347</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -5048,15 +5323,26 @@
         <v>45</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H67" si="7">AG$11*E36</f>
+        <f t="shared" ref="H36:H67" si="8">AH$11*E36</f>
         <v>266.63442717419423</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K36" s="4">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36">
+        <f>(M34*C29/M33^2)^2 + 1/M33*L$4</f>
+        <v>1.5171872694478788E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -5076,16 +5362,20 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="7"/>
+      <c r="H37" s="10">
+        <f t="shared" si="8"/>
         <v>244.4148915763447</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K37" s="4">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -5105,16 +5395,20 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="7"/>
+      <c r="H38" s="10">
+        <f t="shared" si="8"/>
         <v>221.30657455458118</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K38" s="4">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -5135,15 +5429,19 @@
         <v>45</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>207.08607177195751</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K39" s="4">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -5164,15 +5462,19 @@
         <v>45</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>181.31141047845205</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -5193,15 +5495,19 @@
         <v>45</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>168.86847054365634</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -5222,15 +5528,19 @@
         <v>45</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135.09477643492505</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -5251,15 +5561,19 @@
         <v>45</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>106.65377086967769</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K43" s="4">
+        <f t="shared" si="3"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -5280,15 +5594,19 @@
         <v>45</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.216634043527002</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K44" s="4">
+        <f t="shared" si="3"/>
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -5309,15 +5627,19 @@
         <v>45</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.772726923957094</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K45" s="4">
+        <f t="shared" si="3"/>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -5338,15 +5660,19 @@
         <v>45</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>71.99129533703244</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K46" s="4">
+        <f t="shared" si="3"/>
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -5367,15 +5693,19 @@
         <v>45</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>95.099612358795937</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K47" s="4">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -5396,15 +5726,19 @@
         <v>45</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122.65183650012935</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K48" s="4">
+        <f t="shared" si="3"/>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -5425,15 +5759,19 @@
         <v>45</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>144.87137209797885</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K49" s="4">
+        <f t="shared" si="3"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -5454,15 +5792,19 @@
         <v>45</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>170.64603339148428</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K50" s="4">
+        <f t="shared" si="3"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -5483,15 +5825,19 @@
         <v>45</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>204.41972750021557</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K51" s="4">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -5512,15 +5858,19 @@
         <v>45</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>231.97195164154897</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K52" s="4">
+        <f t="shared" si="3"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -5541,15 +5891,19 @@
         <v>45</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255.96905008722646</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K53" s="4">
+        <f t="shared" si="3"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -5570,15 +5924,19 @@
         <v>45</v>
       </c>
       <c r="H54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>293.29786989161363</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K54" s="4">
+        <f t="shared" si="3"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -5599,15 +5957,19 @@
         <v>45</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>335.07059681557075</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K55" s="4">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -5627,16 +5989,20 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="7"/>
+      <c r="H56" s="12">
+        <f t="shared" si="8"/>
         <v>487.05222030486141</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K56" s="4">
+        <f t="shared" si="3"/>
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -5657,15 +6023,19 @@
         <v>45</v>
       </c>
       <c r="H57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>513.71566302228086</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K57" s="4">
+        <f t="shared" si="3"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -5686,15 +6056,19 @@
         <v>45</v>
       </c>
       <c r="H58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>575.93036269625952</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K58" s="4">
+        <f t="shared" si="3"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -5715,15 +6089,19 @@
         <v>45</v>
       </c>
       <c r="H59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>628.36846670718444</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K59" s="4">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -5744,15 +6122,19 @@
         <v>45</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>784.79399731604497</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K60" s="4">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -5773,15 +6155,19 @@
         <v>45</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>762.57446171819538</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K61" s="4">
+        <f t="shared" si="3"/>
+        <v>-378</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -5802,15 +6188,19 @@
         <v>45</v>
       </c>
       <c r="H62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>787.46034158778684</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K62" s="4">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -5831,15 +6221,19 @@
         <v>45</v>
       </c>
       <c r="H63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>813.2350028812923</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K63" s="4">
+        <f t="shared" si="3"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -5860,15 +6254,19 @@
         <v>45</v>
       </c>
       <c r="H64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>826.56672424000203</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K64" s="4">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -5889,18 +6287,25 @@
         <v>45</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>831.8994127834859</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="4">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="L65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="T65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -5921,25 +6326,38 @@
         <v>45</v>
       </c>
       <c r="H66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>817.67891000086229</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="4">
+        <f t="shared" si="3"/>
+        <v>606</v>
+      </c>
+      <c r="L66" t="s">
         <v>25</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <f>H65/10^0.3</f>
         <v>416.93736534910755</v>
       </c>
-      <c r="M66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -5960,25 +6378,59 @@
         <v>45</v>
       </c>
       <c r="H67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>789.23790443561484</v>
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="4">
+        <f t="shared" si="3"/>
+        <v>1376</v>
+      </c>
+      <c r="L67" t="s">
         <v>27</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <f>H65/PI()/(38/2)^2</f>
         <v>0.73352301218690785</v>
       </c>
-      <c r="M67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67">
+        <v>500</v>
+      </c>
+      <c r="R67" t="s">
+        <v>43</v>
+      </c>
+      <c r="S67" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67" t="s">
+        <v>47</v>
+      </c>
+      <c r="U67" t="s">
+        <v>43</v>
+      </c>
+      <c r="V67" t="s">
+        <v>42</v>
+      </c>
+      <c r="W67" t="s">
+        <v>47</v>
+      </c>
+      <c r="X67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -5999,15 +6451,65 @@
         <v>45</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H78" si="8">AG$11*E68</f>
+        <f t="shared" ref="H68:H78" si="9">AH$11*E68</f>
         <v>751.90908463122764</v>
       </c>
       <c r="I68">
         <f t="shared" si="2"/>
         <v>0.88878142391398074</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K68" s="4">
+        <f t="shared" si="3"/>
+        <v>686</v>
+      </c>
+      <c r="L68" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68">
+        <f>I65/PI()/(38/2)^2</f>
+        <v>7.8367843182361951E-4</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>41</v>
+      </c>
+      <c r="R68" s="13">
+        <f>M13</f>
+        <v>0.26801802368367789</v>
+      </c>
+      <c r="S68">
+        <f>ROUNDUP(M14,5)</f>
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="T68">
+        <f>S68/R68*100</f>
+        <v>0.2947562962901254</v>
+      </c>
+      <c r="U68">
+        <f>M31</f>
+        <v>0.41378221200287102</v>
+      </c>
+      <c r="V68">
+        <f>ROUNDUP(M32,6)</f>
+        <v>7.8399999999999997E-4</v>
+      </c>
+      <c r="W68">
+        <f>V68/U68*100</f>
+        <v>0.18947165374875038</v>
+      </c>
+      <c r="X68">
+        <f>M67</f>
+        <v>0.73352301218690785</v>
+      </c>
+      <c r="Y68">
+        <f>ROUNDUP(M68,6)</f>
+        <v>7.8399999999999997E-4</v>
+      </c>
+      <c r="Z68">
+        <f>Y68/X68*100</f>
+        <v>0.10688144570442328</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -6024,19 +6526,68 @@
         <v>550</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G78" si="9">1.5 * 3000/100</f>
+        <f t="shared" ref="G69:G78" si="10">1.5 * 3000/100</f>
         <v>45</v>
       </c>
       <c r="H69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>717.24660909858244</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:I78" si="10">AG$11*M$4</f>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I69:I78" si="11">AH$11*N$4</f>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+      <c r="L69" t="s">
+        <v>34</v>
+      </c>
+      <c r="M69" s="4">
+        <f>C75-C56</f>
+        <v>11088</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>44</v>
+      </c>
+      <c r="R69" s="16">
+        <f>M15</f>
+        <v>4680</v>
+      </c>
+      <c r="S69" s="15">
+        <f>M16</f>
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T70" si="12">S69/R69*100</f>
+        <v>4.2735042735042736E-2</v>
+      </c>
+      <c r="U69" s="16">
+        <f>M33</f>
+        <v>9817</v>
+      </c>
+      <c r="V69" s="15">
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <f t="shared" ref="W69:W70" si="13">V69/U69*100</f>
+        <v>2.0372822654578789E-2</v>
+      </c>
+      <c r="X69" s="4">
+        <f>M69</f>
+        <v>11088</v>
+      </c>
+      <c r="Y69">
+        <f>M70</f>
+        <v>2</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" ref="Z69:Z70" si="14">Y69/X69*100</f>
+        <v>1.8037518037518036E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -6053,19 +6604,69 @@
         <v>500</v>
       </c>
       <c r="G70">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="8"/>
         <v>671.91875647896939</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" ref="K70:K78" si="15">C70-C69</f>
+        <v>371</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <f>L$4*2</f>
+        <v>2</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" s="14">
+        <f>M17</f>
+        <v>67.411111111111111</v>
+      </c>
+      <c r="S70">
+        <f>ROUNDUP(M18,4)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="12"/>
+        <v>1.6317784737102359E-3</v>
+      </c>
+      <c r="U70" s="13">
+        <f>M35</f>
+        <v>34.657838443516347</v>
+      </c>
+      <c r="V70">
+        <f>ROUNDUP(M36,5)</f>
+        <v>1.5999999999999999E-4</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="13"/>
+        <v>4.6165602699302832E-4</v>
+      </c>
+      <c r="X70">
+        <f>M71</f>
+        <v>33.278769841269842</v>
+      </c>
+      <c r="Y70">
+        <f>ROUNDUP(M72,6)</f>
+        <v>1.27E-4</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="14"/>
+        <v>3.8162468326129076E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -6082,19 +6683,30 @@
         <v>450</v>
       </c>
       <c r="G71">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="8"/>
         <v>637.25628094632418</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="15"/>
+        <v>296</v>
+      </c>
+      <c r="L71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71">
+        <f>C65/M69</f>
+        <v>33.278769841269842</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -6111,19 +6723,30 @@
         <v>400</v>
       </c>
       <c r="G72">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="8"/>
         <v>593.70599117453912</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="15"/>
+        <v>391</v>
+      </c>
+      <c r="L72" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72">
+        <f>(M70*C65/M69^2)^2 + 1/M69*L$4</f>
+        <v>1.2621956663848503E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -6140,19 +6763,23 @@
         <v>350</v>
       </c>
       <c r="G73">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="8"/>
         <v>539.49032431578632</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="15"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -6169,19 +6796,23 @@
         <v>300</v>
       </c>
       <c r="G74">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="8"/>
         <v>496.8288159679152</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="15"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -6198,19 +6829,23 @@
         <v>250</v>
       </c>
       <c r="G75">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H75" s="12">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="8"/>
         <v>439.94680483742047</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="15"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -6227,19 +6862,23 @@
         <v>200</v>
       </c>
       <c r="G76">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="8"/>
         <v>351.06866244602236</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="15"/>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -6256,19 +6895,23 @@
         <v>150</v>
       </c>
       <c r="G77">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="8"/>
         <v>291.52030704378564</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="15"/>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -6285,25 +6928,29 @@
         <v>100</v>
       </c>
       <c r="G78">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="8"/>
         <v>177.75628478279614</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
-        <v>0.88878142391398074</v>
+        <f t="shared" si="11"/>
+        <v>0.88878142391398074</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="15"/>
+        <v>2098</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="U3:AC3"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
